--- a/841Ops and Supply Chain Analytics/S4/Data Supporting Edgecomb Case.xlsx
+++ b/841Ops and Supply Chain Analytics/S4/Data Supporting Edgecomb Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/841Ops and Supply Chain Analytics/S4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="11_01C03510F38A39DD9F668FBCC5B96EC5040C0F2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CAA828F-CB70-3546-966D-EA248593E1B9}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="11_01C03510F38A39DD9F668FBCC5B96EC5040C0F2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B32E45E7-5C72-2748-AAC3-DF615C74592D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,10 @@
     <definedName name="_xlchart.v1.4" hidden="1">'Exhbit 4 Williams'!$E$47:$F$47</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Exhbit 4 Williams'!$E$6:$F$47</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="15" r:id="rId7"/>
+    <pivotCache cacheId="19" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="58">
   <si>
     <t>Month</t>
   </si>
@@ -254,6 +255,15 @@
   </si>
   <si>
     <t>Assumptions: As a new driver, Williams maybe following the recommended speed. While Spencer maybe speeding since he is familiar with the routes and truck.</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Virginia Beach/Norfolk</t>
+  </si>
+  <si>
+    <t>Charlottesville</t>
   </si>
 </sst>
 </file>
@@ -954,6 +964,19 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1226,6 +1249,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-3826-6542-84B4-EF2F70047DBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Exhbit 4 Williams'!$L$9:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Exhbit 4 Williams'!$I$11:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200-299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300-399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400-499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500-599</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exhbit 4 Williams'!$L$11:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3620689655172411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-3826-6542-84B4-EF2F70047DBA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2955,7 +3043,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anthony Ramelo" refreshedDate="45532.554333912034" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="131" xr:uid="{D2E89E95-DEC1-0C4C-9632-68EC2458A3C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anthony Ramelo" refreshedDate="45532.645624189812" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="131" xr:uid="{D2E89E95-DEC1-0C4C-9632-68EC2458A3C9}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B7:F138" sheet="Exhbit 4 Williams"/>
   </cacheSource>
@@ -2979,20 +3067,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55" maxValue="540"/>
     </cacheField>
     <cacheField name="Stops" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
-        <n v="4"/>
-        <n v="6"/>
-        <n v="3"/>
-        <n v="5"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="2"/>
-        <n v="9"/>
-        <n v="11"/>
-        <n v="12"/>
-        <n v="10"/>
-        <n v="1"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
     </cacheField>
     <cacheField name="Hours" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.42" maxValue="16"/>
@@ -3006,930 +3081,3026 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anthony Ramelo" refreshedDate="45532.645918518516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="256" xr:uid="{73E16035-DF01-4541-B038-47AEF8788555}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B7:G263" sheet="Exhbit 4 Williams"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Range" numFmtId="0">
+      <sharedItems count="5">
+        <s v="0-199"/>
+        <s v="200-299"/>
+        <s v="300-399"/>
+        <s v="400-499"/>
+        <s v="500-599"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Driver" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Williams (New)"/>
+        <s v="Spencer (Experienced)"/>
+        <s v="Average"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Miles" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55" maxValue="540"/>
+    </cacheField>
+    <cacheField name="Stops" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Hours" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Route" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="131">
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="55"/>
-    <x v="0"/>
+    <n v="4"/>
     <n v="7.5"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="110"/>
-    <x v="1"/>
     <n v="6"/>
+    <n v="6"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="112"/>
-    <x v="2"/>
+    <n v="3"/>
     <n v="6"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="119"/>
-    <x v="2"/>
+    <n v="3"/>
     <n v="8"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="123"/>
+    <n v="5"/>
+    <n v="7.67"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="129"/>
+    <n v="4"/>
+    <n v="7.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="130"/>
+    <n v="3"/>
+    <n v="9.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="132"/>
+    <n v="4"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="145"/>
+    <n v="6"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="147"/>
+    <n v="7"/>
+    <n v="9.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="147"/>
+    <n v="3"/>
+    <n v="5.42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="157"/>
+    <n v="5"/>
+    <n v="7.83"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="163"/>
+    <n v="6"/>
+    <n v="8.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="164"/>
+    <n v="6"/>
+    <n v="7.67"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="171"/>
+    <n v="4"/>
+    <n v="9.17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="174"/>
+    <n v="8"/>
+    <n v="9.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="174"/>
+    <n v="8"/>
+    <n v="9.75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="176"/>
+    <n v="5"/>
+    <n v="7.75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="176"/>
+    <n v="7"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="176"/>
+    <n v="6"/>
+    <n v="8.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="177"/>
+    <n v="5"/>
+    <n v="7.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="178"/>
+    <n v="3"/>
+    <n v="7.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="179"/>
+    <n v="3"/>
+    <n v="7.75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="179"/>
+    <n v="2"/>
+    <n v="8.67"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="181"/>
+    <n v="9"/>
+    <n v="9.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="182"/>
+    <n v="8"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="182"/>
+    <n v="3"/>
+    <n v="8.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="186"/>
+    <n v="9"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="188"/>
+    <n v="4"/>
+    <n v="6.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="188"/>
+    <n v="6"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="189"/>
+    <n v="8"/>
+    <n v="8.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="189"/>
+    <n v="8"/>
+    <n v="8.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="191"/>
+    <n v="6"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="193"/>
+    <n v="4"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="193"/>
+    <n v="5"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="193"/>
+    <n v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="193"/>
+    <n v="4"/>
+    <n v="7.75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="195"/>
+    <n v="5"/>
+    <n v="9.75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="197"/>
+    <n v="5"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="199"/>
+    <n v="8"/>
+    <n v="9.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="200"/>
+    <n v="7"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="201"/>
+    <n v="11"/>
+    <n v="9.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="203"/>
+    <n v="8"/>
+    <n v="13.08"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="203"/>
+    <n v="11"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="204"/>
+    <n v="6"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="205"/>
+    <n v="2"/>
+    <n v="8.42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="206"/>
+    <n v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="207"/>
+    <n v="3"/>
+    <n v="7.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="208"/>
+    <n v="5"/>
+    <n v="9.33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="214"/>
+    <n v="6"/>
+    <n v="8.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="216"/>
+    <n v="9"/>
+    <n v="9.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="218"/>
+    <n v="4"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="221"/>
+    <n v="4"/>
+    <n v="8.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="223"/>
+    <n v="5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="225"/>
+    <n v="12"/>
+    <n v="13.17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="225"/>
+    <n v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="226"/>
+    <n v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="226"/>
+    <n v="9"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="227"/>
+    <n v="9"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="228"/>
+    <n v="10"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="237"/>
+    <n v="7"/>
+    <n v="10.33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="238"/>
+    <n v="3"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="240"/>
+    <n v="3"/>
+    <n v="8.67"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="241"/>
+    <n v="5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="249"/>
+    <n v="2"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="251"/>
+    <n v="8"/>
+    <n v="9.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="253"/>
+    <n v="6"/>
+    <n v="10.67"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="254"/>
+    <n v="3"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="258"/>
+    <n v="6"/>
+    <n v="12.17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="261"/>
+    <n v="7"/>
+    <n v="11.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="262"/>
+    <n v="6"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="262"/>
+    <n v="8"/>
+    <n v="9.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="262"/>
+    <n v="6"/>
+    <n v="9.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="264"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="265"/>
+    <n v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="275"/>
+    <n v="1"/>
+    <n v="9.33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="275"/>
+    <n v="6"/>
+    <n v="9.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="276"/>
+    <n v="1"/>
+    <n v="9.67"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="279"/>
+    <n v="9"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="279"/>
+    <n v="6"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="286"/>
+    <n v="6"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="286"/>
+    <n v="2"/>
+    <n v="9.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="290"/>
+    <n v="2"/>
+    <n v="7.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="292"/>
+    <n v="3"/>
+    <n v="10.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="292"/>
+    <n v="4"/>
+    <n v="11.33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="292"/>
+    <n v="5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="298"/>
+    <n v="4"/>
+    <n v="7.75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="306"/>
+    <n v="11"/>
+    <n v="11.75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="310"/>
+    <n v="6"/>
+    <n v="10.83"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="311"/>
+    <n v="9"/>
+    <n v="13.25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="311"/>
+    <n v="8"/>
+    <n v="11.75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="312"/>
+    <n v="10"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="320"/>
+    <n v="4"/>
+    <n v="11.33"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="320"/>
+    <n v="9"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="321"/>
+    <n v="4"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="321"/>
+    <n v="6"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="326"/>
+    <n v="6"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="331"/>
+    <n v="3"/>
+    <n v="10.17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="331"/>
+    <n v="5"/>
+    <n v="12.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="333"/>
+    <n v="3"/>
+    <n v="9.25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="334"/>
+    <n v="5"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="335"/>
+    <n v="12"/>
+    <n v="10.67"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="338"/>
+    <n v="2"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="339"/>
+    <n v="9"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="340"/>
+    <n v="7"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="341"/>
+    <n v="10"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="345"/>
+    <n v="2"/>
+    <n v="8.75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="346"/>
+    <n v="9"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="350"/>
+    <n v="6"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="352"/>
+    <n v="6"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="352"/>
+    <n v="7"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="364"/>
+    <n v="8"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="364"/>
+    <n v="9"/>
+    <n v="12.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="368"/>
+    <n v="3"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="369"/>
+    <n v="7"/>
+    <n v="11.75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="372"/>
+    <n v="11"/>
+    <n v="13.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="375"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="378"/>
+    <n v="2"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="379"/>
+    <n v="5"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="379"/>
+    <n v="8"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="382"/>
+    <n v="4"/>
+    <n v="9.83"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="386"/>
+    <n v="5"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="392"/>
+    <n v="5"/>
+    <n v="12.85"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="398"/>
+    <n v="1"/>
+    <n v="10.33"/>
+  </r>
+  <r>
     <x v="3"/>
+    <x v="0"/>
+    <n v="401"/>
+    <n v="4"/>
+    <n v="13.25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="415"/>
+    <n v="3"/>
+    <n v="11.75"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="427"/>
+    <n v="5"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="440"/>
+    <n v="4"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="522"/>
+    <n v="8"/>
+    <n v="15.75"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="536"/>
+    <n v="2"/>
+    <n v="13.32"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="540"/>
+    <n v="11"/>
+    <n v="16"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="256">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="55"/>
+    <n v="4"/>
+    <n v="7.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="110"/>
+    <n v="6"/>
+    <n v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="112"/>
+    <n v="3"/>
+    <n v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="119"/>
+    <n v="3"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="123"/>
+    <n v="5"/>
     <n v="7.67"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="129"/>
-    <x v="0"/>
+    <n v="4"/>
     <n v="7.5"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="130"/>
-    <x v="2"/>
+    <n v="3"/>
     <n v="9.25"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="132"/>
-    <x v="0"/>
+    <n v="4"/>
     <n v="9"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="145"/>
-    <x v="1"/>
+    <n v="6"/>
     <n v="8"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="147"/>
+    <n v="7"/>
+    <n v="9.1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="147"/>
+    <n v="3"/>
+    <n v="5.42"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="157"/>
+    <n v="5"/>
+    <n v="7.83"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="163"/>
+    <n v="6"/>
+    <n v="8.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="164"/>
+    <n v="6"/>
+    <n v="7.67"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="171"/>
+    <n v="4"/>
+    <n v="9.17"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="174"/>
+    <n v="8"/>
+    <n v="9.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="174"/>
+    <n v="8"/>
+    <n v="9.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="176"/>
+    <n v="5"/>
+    <n v="7.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="176"/>
+    <n v="7"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="176"/>
+    <n v="6"/>
+    <n v="8.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="177"/>
+    <n v="5"/>
+    <n v="7.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="178"/>
+    <n v="3"/>
+    <n v="7.1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="179"/>
+    <n v="3"/>
+    <n v="7.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="179"/>
+    <n v="2"/>
+    <n v="8.67"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="181"/>
+    <n v="9"/>
+    <n v="9.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="182"/>
+    <n v="8"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="182"/>
+    <n v="3"/>
+    <n v="8.25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="186"/>
+    <n v="9"/>
+    <n v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="188"/>
+    <n v="4"/>
+    <n v="6.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="188"/>
+    <n v="6"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="189"/>
+    <n v="8"/>
+    <n v="8.25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="189"/>
+    <n v="8"/>
+    <n v="8.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="191"/>
+    <n v="6"/>
+    <n v="11"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="193"/>
+    <n v="4"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="193"/>
+    <n v="5"/>
+    <n v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="193"/>
+    <n v="4"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="193"/>
+    <n v="4"/>
+    <n v="7.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="195"/>
+    <n v="5"/>
+    <n v="9.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="197"/>
+    <n v="5"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="199"/>
+    <n v="8"/>
+    <n v="9.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="200"/>
+    <n v="7"/>
+    <n v="10.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="201"/>
+    <n v="11"/>
+    <n v="9.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="203"/>
+    <n v="8"/>
+    <n v="13.08"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="203"/>
+    <n v="11"/>
+    <n v="11.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="204"/>
+    <n v="6"/>
+    <n v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="205"/>
+    <n v="2"/>
+    <n v="8.42"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="206"/>
+    <n v="2"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="207"/>
+    <n v="3"/>
+    <n v="7.25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="208"/>
+    <n v="5"/>
+    <n v="9.33"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="214"/>
+    <n v="6"/>
+    <n v="8.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="216"/>
+    <n v="9"/>
+    <n v="9.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="218"/>
+    <n v="4"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="221"/>
+    <n v="4"/>
+    <n v="8.25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="223"/>
+    <n v="5"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="225"/>
+    <n v="12"/>
+    <n v="13.17"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="225"/>
+    <n v="4"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="226"/>
+    <n v="4"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="226"/>
+    <n v="9"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="227"/>
+    <n v="9"/>
+    <n v="10.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="228"/>
+    <n v="10"/>
+    <n v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="237"/>
+    <n v="7"/>
+    <n v="10.33"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="238"/>
+    <n v="3"/>
+    <n v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="240"/>
+    <n v="3"/>
+    <n v="8.67"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="241"/>
+    <n v="5"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="249"/>
+    <n v="2"/>
+    <n v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="251"/>
+    <n v="8"/>
+    <n v="9.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="253"/>
+    <n v="6"/>
+    <n v="10.67"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="254"/>
+    <n v="3"/>
+    <n v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="258"/>
+    <n v="6"/>
+    <n v="12.17"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="261"/>
+    <n v="7"/>
+    <n v="11.4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="262"/>
+    <n v="6"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="262"/>
+    <n v="8"/>
+    <n v="9.25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="262"/>
+    <n v="6"/>
+    <n v="9.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="264"/>
+    <n v="1"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="265"/>
+    <n v="4"/>
+    <n v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="275"/>
+    <n v="1"/>
+    <n v="9.33"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="275"/>
+    <n v="6"/>
+    <n v="9.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="276"/>
+    <n v="1"/>
+    <n v="9.67"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="279"/>
+    <n v="9"/>
+    <n v="12"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="279"/>
+    <n v="6"/>
+    <n v="10.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="286"/>
+    <n v="6"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="286"/>
+    <n v="2"/>
+    <n v="9.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="290"/>
+    <n v="2"/>
+    <n v="7.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="292"/>
+    <n v="3"/>
+    <n v="10.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="292"/>
+    <n v="4"/>
+    <n v="11.33"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="292"/>
+    <n v="5"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="298"/>
+    <n v="4"/>
+    <n v="7.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="306"/>
+    <n v="11"/>
+    <n v="11.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="310"/>
+    <n v="6"/>
+    <n v="10.83"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="311"/>
+    <n v="9"/>
+    <n v="13.25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="311"/>
+    <n v="8"/>
+    <n v="11.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="312"/>
+    <n v="10"/>
+    <n v="12"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="320"/>
+    <n v="4"/>
+    <n v="11.33"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="320"/>
+    <n v="9"/>
+    <n v="11.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="321"/>
+    <n v="4"/>
+    <n v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="321"/>
+    <n v="6"/>
+    <n v="10.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="326"/>
+    <n v="6"/>
+    <n v="11"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="331"/>
+    <n v="3"/>
+    <n v="10.17"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="331"/>
+    <n v="5"/>
+    <n v="12.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="333"/>
+    <n v="3"/>
+    <n v="9.25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="334"/>
+    <n v="5"/>
+    <n v="10.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="335"/>
+    <n v="12"/>
+    <n v="10.67"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="338"/>
+    <n v="2"/>
+    <n v="10.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="339"/>
+    <n v="9"/>
+    <n v="12"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="340"/>
+    <n v="7"/>
+    <n v="12"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="341"/>
+    <n v="10"/>
+    <n v="11.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="345"/>
+    <n v="2"/>
+    <n v="8.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="346"/>
+    <n v="9"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="350"/>
+    <n v="6"/>
+    <n v="10.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="352"/>
+    <n v="6"/>
+    <n v="10.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="352"/>
+    <n v="7"/>
+    <n v="11.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="364"/>
+    <n v="8"/>
+    <n v="13"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="364"/>
+    <n v="9"/>
+    <n v="12.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="368"/>
+    <n v="3"/>
+    <n v="11.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="369"/>
+    <n v="7"/>
+    <n v="11.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="372"/>
+    <n v="11"/>
+    <n v="13.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="375"/>
+    <n v="2"/>
+    <n v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="378"/>
+    <n v="2"/>
+    <n v="10.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="379"/>
+    <n v="5"/>
+    <n v="11.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="379"/>
+    <n v="8"/>
+    <n v="11"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="382"/>
+    <n v="4"/>
+    <n v="9.83"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="386"/>
+    <n v="5"/>
+    <n v="14"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="392"/>
+    <n v="5"/>
+    <n v="12.85"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="398"/>
+    <n v="1"/>
+    <n v="10.33"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="401"/>
+    <n v="4"/>
+    <n v="13.25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="415"/>
+    <n v="3"/>
+    <n v="11.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="427"/>
+    <n v="5"/>
+    <n v="14"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="440"/>
+    <n v="4"/>
+    <n v="11.5"/>
+    <m/>
+  </r>
+  <r>
     <x v="4"/>
-    <n v="9.1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="147"/>
-    <x v="2"/>
-    <n v="5.42"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="157"/>
+    <x v="1"/>
+    <n v="522"/>
+    <n v="8"/>
+    <n v="15.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="536"/>
+    <n v="2"/>
+    <n v="13.32"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="540"/>
+    <n v="11"/>
+    <n v="16"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="331"/>
+    <n v="3"/>
+    <n v="10.17"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="364"/>
+    <n v="9"/>
+    <n v="12.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="304"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
     <x v="3"/>
-    <n v="7.83"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="163"/>
-    <x v="1"/>
+    <x v="2"/>
+    <n v="419"/>
+    <n v="7"/>
+    <n v="12.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="341"/>
+    <n v="5"/>
+    <n v="9.92"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="349"/>
+    <n v="6"/>
+    <n v="12.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="340"/>
+    <n v="7"/>
+    <n v="11"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="334"/>
+    <n v="2"/>
+    <n v="9.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="368"/>
+    <n v="3"/>
+    <n v="11.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="280"/>
+    <n v="3"/>
+    <n v="9.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="352"/>
+    <n v="6"/>
+    <n v="10.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="339"/>
+    <n v="7"/>
+    <n v="12"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="264"/>
+    <n v="1"/>
+    <n v="8"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="326"/>
+    <n v="5"/>
+    <n v="11"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="420"/>
+    <n v="3"/>
+    <n v="11.67"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="372"/>
+    <n v="11"/>
+    <n v="13.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="335"/>
+    <n v="4"/>
+    <n v="9.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="273"/>
+    <n v="2"/>
+    <n v="8"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="331"/>
+    <n v="6"/>
+    <n v="10.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="328"/>
+    <n v="9"/>
+    <n v="13"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="331"/>
+    <n v="5"/>
+    <n v="12.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="311"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="322"/>
+    <n v="4"/>
+    <n v="9.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="338"/>
+    <n v="2"/>
+    <n v="10.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="368"/>
+    <n v="4"/>
+    <n v="10.75"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="347"/>
+    <n v="7"/>
+    <n v="12.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="347"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="333"/>
+    <n v="3"/>
+    <n v="9.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="321"/>
+    <n v="6"/>
+    <n v="10.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="335"/>
+    <n v="5"/>
+    <n v="12"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="370"/>
+    <n v="10"/>
+    <n v="12.8"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="343"/>
+    <n v="7"/>
+    <n v="12"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="353"/>
+    <n v="9"/>
+    <n v="11.75"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="279"/>
+    <n v="9"/>
+    <n v="12"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="333"/>
+    <n v="7"/>
+    <n v="12"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="366"/>
+    <n v="11"/>
+    <n v="12.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="329"/>
+    <n v="4"/>
+    <n v="11.42"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="348"/>
+    <n v="9"/>
+    <n v="11.75"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="368"/>
+    <n v="10"/>
+    <n v="13"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="372"/>
+    <n v="9"/>
+    <n v="12.67"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="373"/>
+    <n v="11"/>
+    <n v="13"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="416"/>
+    <n v="3"/>
+    <n v="11.75"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="320"/>
+    <n v="4"/>
+    <n v="11.33"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="367"/>
+    <n v="5"/>
+    <n v="12"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="399"/>
+    <n v="12"/>
+    <n v="13.83"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="328"/>
+    <n v="1"/>
+    <n v="8.75"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="341"/>
+    <n v="10"/>
+    <n v="11.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="353"/>
+    <n v="7"/>
+    <n v="12"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="366"/>
+    <n v="9"/>
+    <n v="12.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="337"/>
+    <n v="5"/>
+    <n v="12.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="288"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="352"/>
+    <n v="7"/>
+    <n v="11.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="363"/>
+    <n v="9"/>
+    <n v="11.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="373"/>
+    <n v="8"/>
+    <n v="12.75"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="278"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="339"/>
+    <n v="3"/>
+    <n v="11.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="312"/>
+    <n v="5"/>
+    <n v="10.75"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="327"/>
+    <n v="5"/>
+    <n v="10.42"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="334"/>
+    <n v="5"/>
+    <n v="10.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="360"/>
+    <n v="8"/>
+    <n v="11.75"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="272"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="310"/>
+    <n v="3"/>
+    <n v="11.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="276"/>
+    <n v="1"/>
+    <n v="9.67"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="340"/>
+    <n v="7"/>
+    <n v="12"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="354"/>
+    <n v="11"/>
+    <n v="15"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="276"/>
+    <n v="2"/>
+    <n v="8.25"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="364"/>
+    <n v="8"/>
+    <n v="13"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="354"/>
+    <n v="7"/>
+    <n v="13"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="343"/>
+    <n v="6"/>
+    <n v="11"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="350"/>
+    <n v="6"/>
+    <n v="10.5"/>
+    <s v="Virginia Beach/Norfolk"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="182"/>
+    <n v="3"/>
+    <n v="8.25"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="131"/>
+    <n v="4"/>
+    <n v="6.75"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="136"/>
+    <n v="4"/>
+    <n v="8"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="193"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="129"/>
+    <n v="4"/>
+    <n v="7.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="214"/>
+    <n v="6"/>
     <n v="8.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="164"/>
-    <x v="1"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="162"/>
+    <n v="6"/>
+    <n v="8.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="227"/>
+    <n v="4"/>
+    <n v="8.75"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="226"/>
+    <n v="5"/>
+    <n v="8"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="215"/>
+    <n v="4"/>
+    <n v="8.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="197"/>
+    <n v="2"/>
+    <n v="7.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="112"/>
+    <n v="3"/>
+    <n v="6"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="156"/>
+    <n v="5"/>
+    <n v="7.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="204"/>
+    <n v="6"/>
+    <n v="9"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="298"/>
+    <n v="4"/>
+    <n v="7.75"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="109"/>
+    <n v="6"/>
+    <n v="7.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="231"/>
+    <n v="8"/>
+    <n v="11.08"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="127"/>
+    <n v="5"/>
+    <n v="7.25"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="184"/>
+    <n v="3"/>
+    <n v="7.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="89"/>
+    <n v="5"/>
+    <n v="8"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="93"/>
+    <n v="3"/>
+    <n v="6.67"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="176"/>
+    <n v="4"/>
+    <n v="7.33"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="131"/>
+    <n v="6"/>
+    <n v="8.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="177"/>
+    <n v="5"/>
+    <n v="7.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="171"/>
+    <n v="4"/>
+    <n v="9.17"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="223"/>
+    <n v="5"/>
+    <n v="10"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="193"/>
+    <n v="4"/>
+    <n v="7.75"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="179"/>
+    <n v="4"/>
+    <n v="7.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="125"/>
+    <n v="6"/>
+    <n v="6"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="149"/>
+    <n v="5"/>
+    <n v="6.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="108"/>
+    <n v="5"/>
+    <n v="6"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="152"/>
+    <n v="3"/>
+    <n v="6"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55"/>
+    <n v="4"/>
+    <n v="7.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="165"/>
+    <n v="4"/>
+    <n v="8.75"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="197"/>
+    <n v="5"/>
+    <n v="8"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="131"/>
+    <n v="4"/>
+    <n v="8.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="110"/>
+    <n v="6"/>
+    <n v="6"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="191"/>
+    <n v="5"/>
+    <n v="8.25"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="105"/>
+    <n v="7"/>
+    <n v="8"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="240"/>
+    <n v="3"/>
+    <n v="8"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="130"/>
+    <n v="3"/>
+    <n v="9.25"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="265"/>
+    <n v="4"/>
+    <n v="10.6"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="207"/>
+    <n v="3"/>
+    <n v="7.25"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="88"/>
+    <n v="3"/>
+    <n v="5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="178"/>
+    <n v="3"/>
+    <n v="7.08"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="158"/>
+    <n v="5"/>
+    <n v="9.67"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="188"/>
+    <n v="6"/>
+    <n v="8.25"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="151"/>
+    <n v="6"/>
+    <n v="8.75"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="132"/>
+    <n v="4"/>
+    <n v="9"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="142"/>
+    <n v="2"/>
+    <n v="6.67"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="204"/>
+    <n v="5"/>
+    <n v="8.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="205"/>
+    <n v="6"/>
+    <n v="8.5"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="123"/>
+    <n v="5"/>
     <n v="7.67"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="171"/>
-    <x v="0"/>
-    <n v="9.17"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="174"/>
-    <x v="5"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="174"/>
-    <x v="5"/>
-    <n v="9.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="176"/>
-    <x v="3"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="176"/>
-    <x v="4"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="7"/>
+    <n v="8.25"/>
+    <s v="Charlottesville"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="62"/>
+    <n v="4"/>
     <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="176"/>
-    <x v="1"/>
-    <n v="8.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="177"/>
-    <x v="3"/>
-    <n v="7.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="178"/>
-    <x v="2"/>
-    <n v="7.1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="179"/>
-    <x v="2"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="179"/>
-    <x v="6"/>
-    <n v="8.67"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="181"/>
-    <x v="7"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="182"/>
-    <x v="5"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="182"/>
-    <x v="2"/>
-    <n v="8.25"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="186"/>
-    <x v="7"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="188"/>
-    <x v="0"/>
-    <n v="6.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="188"/>
-    <x v="1"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="189"/>
-    <x v="5"/>
-    <n v="8.25"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="189"/>
-    <x v="5"/>
-    <n v="8.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="191"/>
-    <x v="1"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="193"/>
-    <x v="0"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="193"/>
-    <x v="3"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="193"/>
-    <x v="0"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="193"/>
-    <x v="0"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="195"/>
-    <x v="3"/>
-    <n v="9.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="197"/>
-    <x v="3"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="199"/>
-    <x v="5"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="200"/>
-    <x v="4"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="201"/>
-    <x v="8"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="203"/>
-    <x v="5"/>
-    <n v="13.08"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="203"/>
-    <x v="8"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="204"/>
-    <x v="1"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="205"/>
-    <x v="6"/>
-    <n v="8.42"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="206"/>
-    <x v="6"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="207"/>
-    <x v="2"/>
-    <n v="7.25"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="208"/>
-    <x v="3"/>
-    <n v="9.33"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="214"/>
-    <x v="1"/>
-    <n v="8.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="216"/>
-    <x v="7"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="218"/>
-    <x v="0"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="221"/>
-    <x v="0"/>
-    <n v="8.25"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="223"/>
-    <x v="3"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="225"/>
-    <x v="9"/>
-    <n v="13.17"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="225"/>
-    <x v="0"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="226"/>
-    <x v="0"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="226"/>
-    <x v="7"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="227"/>
-    <x v="7"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="228"/>
-    <x v="10"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="237"/>
-    <x v="4"/>
-    <n v="10.33"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="238"/>
-    <x v="2"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="240"/>
-    <x v="2"/>
-    <n v="8.67"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="241"/>
-    <x v="3"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="249"/>
-    <x v="6"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="251"/>
-    <x v="5"/>
-    <n v="9.75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="253"/>
-    <x v="1"/>
-    <n v="10.67"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="254"/>
-    <x v="2"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="258"/>
-    <x v="1"/>
-    <n v="12.17"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="261"/>
-    <x v="4"/>
-    <n v="11.4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="262"/>
-    <x v="1"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="262"/>
-    <x v="5"/>
-    <n v="9.25"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="262"/>
-    <x v="1"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="264"/>
-    <x v="11"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="265"/>
-    <x v="0"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="275"/>
-    <x v="11"/>
-    <n v="9.33"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="275"/>
-    <x v="1"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="276"/>
-    <x v="11"/>
-    <n v="9.67"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="279"/>
-    <x v="7"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="279"/>
-    <x v="1"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="286"/>
-    <x v="1"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="286"/>
-    <x v="6"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="290"/>
-    <x v="6"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="292"/>
-    <x v="2"/>
-    <n v="10.75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="292"/>
-    <x v="0"/>
-    <n v="11.33"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="292"/>
-    <x v="3"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="298"/>
-    <x v="0"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="306"/>
-    <x v="8"/>
-    <n v="11.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="310"/>
-    <x v="1"/>
-    <n v="10.83"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="311"/>
-    <x v="7"/>
-    <n v="13.25"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="311"/>
-    <x v="5"/>
-    <n v="11.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="312"/>
-    <x v="10"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="320"/>
-    <x v="0"/>
-    <n v="11.33"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="320"/>
-    <x v="7"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="321"/>
-    <x v="0"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="321"/>
-    <x v="1"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="326"/>
-    <x v="1"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="331"/>
-    <x v="2"/>
-    <n v="10.17"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="331"/>
-    <x v="3"/>
-    <n v="12.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
-    <x v="2"/>
-    <n v="9.25"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="334"/>
-    <x v="3"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="335"/>
-    <x v="9"/>
-    <n v="10.67"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="338"/>
-    <x v="6"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="339"/>
-    <x v="7"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="340"/>
-    <x v="4"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="341"/>
-    <x v="10"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="345"/>
-    <x v="6"/>
-    <n v="8.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="346"/>
-    <x v="7"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="350"/>
-    <x v="1"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="352"/>
-    <x v="1"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="352"/>
-    <x v="4"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="364"/>
-    <x v="5"/>
-    <n v="13"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="364"/>
-    <x v="7"/>
-    <n v="12.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="368"/>
-    <x v="2"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="369"/>
-    <x v="4"/>
-    <n v="11.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="372"/>
-    <x v="8"/>
-    <n v="13.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="375"/>
-    <x v="6"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="378"/>
-    <x v="6"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="379"/>
-    <x v="3"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="379"/>
-    <x v="5"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="382"/>
-    <x v="0"/>
-    <n v="9.83"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="386"/>
-    <x v="3"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="392"/>
-    <x v="3"/>
-    <n v="12.85"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="398"/>
-    <x v="11"/>
-    <n v="10.33"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="401"/>
-    <x v="0"/>
-    <n v="13.25"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="415"/>
-    <x v="2"/>
-    <n v="11.75"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="427"/>
-    <x v="3"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="440"/>
-    <x v="0"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="522"/>
-    <x v="5"/>
-    <n v="15.75"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="536"/>
-    <x v="6"/>
-    <n v="13.32"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="540"/>
-    <x v="8"/>
-    <n v="16"/>
+    <s v="Charlottesville"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FAE9814-BC00-6E4D-8676-80CE72B972E1}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FAE9814-BC00-6E4D-8676-80CE72B972E1}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="N9:Q16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -4032,9 +6203,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D601F8D7-33E3-594F-9D77-48902AEDC74B}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="I9:L16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36516E43-9315-DE40-9A57-E6CF9A10A225}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="I9:M16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="0"/>
@@ -4046,30 +6217,16 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="13">
-        <item x="11"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -4098,12 +6255,15 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -4112,7 +6272,7 @@
   <dataFields count="1">
     <dataField name="Average of Stops" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="8">
+  <chartFormats count="5">
     <chartFormat chart="0" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4155,50 +6315,14 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="8" series="1">
+    <chartFormat chart="6" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -4921,10 +7045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Q138"/>
+  <dimension ref="A2:Q263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="82" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4933,7 +7057,8 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -5024,6 +7149,9 @@
       <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="G7" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
@@ -5100,6 +7228,9 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>43</v>
       </c>
       <c r="N10" s="25" t="s">
@@ -5142,7 +7273,10 @@
         <v>6.1875</v>
       </c>
       <c r="L11" s="27">
-        <v>5.3</v>
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="M11" s="27">
+        <v>4.8536585365853657</v>
       </c>
       <c r="N11" s="26" t="s">
         <v>44</v>
@@ -5184,7 +7318,10 @@
         <v>5.9047619047619051</v>
       </c>
       <c r="L12" s="27">
-        <v>5.4255319148936172</v>
+        <v>4.2272727272727275</v>
+      </c>
+      <c r="M12" s="27">
+        <v>5.0434782608695654</v>
       </c>
       <c r="N12" s="26" t="s">
         <v>45</v>
@@ -5226,7 +7363,10 @@
         <v>6.5862068965517242</v>
       </c>
       <c r="L13" s="27">
-        <v>6.1891891891891895</v>
+        <v>6.3620689655172411</v>
+      </c>
+      <c r="M13" s="27">
+        <v>6.2947368421052632</v>
       </c>
       <c r="N13" s="26" t="s">
         <v>46</v>
@@ -5268,7 +7408,10 @@
         <v>3.5</v>
       </c>
       <c r="L14" s="27">
-        <v>4</v>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="M14" s="27">
+        <v>4.1428571428571432</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>47</v>
@@ -5309,7 +7452,8 @@
       <c r="K15" s="27">
         <v>9.5</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="27"/>
+      <c r="M15" s="27">
         <v>7</v>
       </c>
       <c r="N15" s="26" t="s">
@@ -5352,7 +7496,10 @@
         <v>6.2857142857142856</v>
       </c>
       <c r="L16" s="27">
-        <v>5.5954198473282446</v>
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="M16" s="27">
+        <v>5.4453125</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>43</v>
@@ -7392,7 +9539,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" t="str">
         <f>IF(D129&lt;200,"0-199",IF(D129&lt;300,"200-299",IF(D129&lt;400,"300-399",IF(D129&lt;500,"400-499",IF(D129&lt;600,"500-599","n/a")))))</f>
         <v>300-399</v>
@@ -7410,7 +9557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" t="str">
         <f>IF(D130&lt;200,"0-199",IF(D130&lt;300,"200-299",IF(D130&lt;400,"300-399",IF(D130&lt;500,"400-499",IF(D130&lt;600,"500-599","n/a")))))</f>
         <v>300-399</v>
@@ -7428,7 +9575,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" t="str">
         <f>IF(D131&lt;200,"0-199",IF(D131&lt;300,"200-299",IF(D131&lt;400,"300-399",IF(D131&lt;500,"400-499",IF(D131&lt;600,"500-599","n/a")))))</f>
         <v>300-399</v>
@@ -7446,7 +9593,7 @@
         <v>10.33</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" t="str">
         <f>IF(D132&lt;200,"0-199",IF(D132&lt;300,"200-299",IF(D132&lt;400,"300-399",IF(D132&lt;500,"400-499",IF(D132&lt;600,"500-599","n/a")))))</f>
         <v>400-499</v>
@@ -7464,7 +9611,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" t="str">
         <f>IF(D133&lt;200,"0-199",IF(D133&lt;300,"200-299",IF(D133&lt;400,"300-399",IF(D133&lt;500,"400-499",IF(D133&lt;600,"500-599","n/a")))))</f>
         <v>400-499</v>
@@ -7482,7 +9629,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" t="str">
         <f>IF(D134&lt;200,"0-199",IF(D134&lt;300,"200-299",IF(D134&lt;400,"300-399",IF(D134&lt;500,"400-499",IF(D134&lt;600,"500-599","n/a")))))</f>
         <v>400-499</v>
@@ -7500,7 +9647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" t="str">
         <f>IF(D135&lt;200,"0-199",IF(D135&lt;300,"200-299",IF(D135&lt;400,"300-399",IF(D135&lt;500,"400-499",IF(D135&lt;600,"500-599","n/a")))))</f>
         <v>400-499</v>
@@ -7518,7 +9665,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" t="str">
         <f>IF(D136&lt;200,"0-199",IF(D136&lt;300,"200-299",IF(D136&lt;400,"300-399",IF(D136&lt;500,"400-499",IF(D136&lt;600,"500-599","n/a")))))</f>
         <v>500-599</v>
@@ -7536,7 +9683,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" t="str">
         <f>IF(D137&lt;200,"0-199",IF(D137&lt;300,"200-299",IF(D137&lt;400,"300-399",IF(D137&lt;500,"400-499",IF(D137&lt;600,"500-599","n/a")))))</f>
         <v>500-599</v>
@@ -7554,7 +9701,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" t="str">
         <f>IF(D138&lt;200,"0-199",IF(D138&lt;300,"200-299",IF(D138&lt;400,"300-399",IF(D138&lt;500,"400-499",IF(D138&lt;600,"500-599","n/a")))))</f>
         <v>500-599</v>
@@ -7570,6 +9717,2631 @@
       </c>
       <c r="F138" s="15">
         <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" t="str">
+        <f t="shared" ref="B139:B173" si="0">IF(D139&lt;200,"0-199",IF(D139&lt;300,"200-299",IF(D139&lt;400,"300-399",IF(D139&lt;500,"400-499",IF(D139&lt;600,"500-599","n/a")))))</f>
+        <v>300-399</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="15">
+        <v>331</v>
+      </c>
+      <c r="E139" s="15">
+        <v>3</v>
+      </c>
+      <c r="F139" s="15">
+        <v>10.17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="15">
+        <v>364</v>
+      </c>
+      <c r="E140" s="15">
+        <v>9</v>
+      </c>
+      <c r="F140" s="15">
+        <v>12.5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="15">
+        <v>304</v>
+      </c>
+      <c r="E141" s="15">
+        <v>4</v>
+      </c>
+      <c r="F141" s="15">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B142" t="str">
+        <f t="shared" si="0"/>
+        <v>400-499</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" s="15">
+        <v>419</v>
+      </c>
+      <c r="E142" s="15">
+        <v>7</v>
+      </c>
+      <c r="F142" s="15">
+        <v>12.25</v>
+      </c>
+      <c r="G142" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="15">
+        <v>341</v>
+      </c>
+      <c r="E143" s="15">
+        <v>5</v>
+      </c>
+      <c r="F143" s="15">
+        <v>9.92</v>
+      </c>
+      <c r="G143" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="15">
+        <v>349</v>
+      </c>
+      <c r="E144" s="15">
+        <v>6</v>
+      </c>
+      <c r="F144" s="15">
+        <v>12.25</v>
+      </c>
+      <c r="G144" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="15">
+        <v>340</v>
+      </c>
+      <c r="E145" s="15">
+        <v>7</v>
+      </c>
+      <c r="F145" s="15">
+        <v>11</v>
+      </c>
+      <c r="G145" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="15">
+        <v>334</v>
+      </c>
+      <c r="E146" s="15">
+        <v>2</v>
+      </c>
+      <c r="F146" s="15">
+        <v>9.5</v>
+      </c>
+      <c r="G146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B147" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="15">
+        <v>368</v>
+      </c>
+      <c r="E147" s="15">
+        <v>3</v>
+      </c>
+      <c r="F147" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="G147" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B148" t="str">
+        <f t="shared" si="0"/>
+        <v>200-299</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="15">
+        <v>280</v>
+      </c>
+      <c r="E148" s="15">
+        <v>3</v>
+      </c>
+      <c r="F148" s="15">
+        <v>9.25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="15">
+        <v>352</v>
+      </c>
+      <c r="E149" s="15">
+        <v>6</v>
+      </c>
+      <c r="F149" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="G149" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" s="15">
+        <v>339</v>
+      </c>
+      <c r="E150" s="15">
+        <v>7</v>
+      </c>
+      <c r="F150" s="15">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151" t="str">
+        <f t="shared" si="0"/>
+        <v>200-299</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="15">
+        <v>264</v>
+      </c>
+      <c r="E151" s="15">
+        <v>1</v>
+      </c>
+      <c r="F151" s="15">
+        <v>8</v>
+      </c>
+      <c r="G151" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" s="15">
+        <v>326</v>
+      </c>
+      <c r="E152" s="15">
+        <v>5</v>
+      </c>
+      <c r="F152" s="15">
+        <v>11</v>
+      </c>
+      <c r="G152" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153" t="str">
+        <f t="shared" si="0"/>
+        <v>400-499</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="15">
+        <v>420</v>
+      </c>
+      <c r="E153" s="15">
+        <v>3</v>
+      </c>
+      <c r="F153" s="15">
+        <v>11.67</v>
+      </c>
+      <c r="G153" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C154" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" s="15">
+        <v>372</v>
+      </c>
+      <c r="E154" s="15">
+        <v>11</v>
+      </c>
+      <c r="F154" s="15">
+        <v>13.5</v>
+      </c>
+      <c r="G154" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" s="15">
+        <v>335</v>
+      </c>
+      <c r="E155" s="15">
+        <v>4</v>
+      </c>
+      <c r="F155" s="15">
+        <v>9.5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B156" t="str">
+        <f t="shared" si="0"/>
+        <v>200-299</v>
+      </c>
+      <c r="C156" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" s="15">
+        <v>273</v>
+      </c>
+      <c r="E156" s="15">
+        <v>2</v>
+      </c>
+      <c r="F156" s="15">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B157" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" s="15">
+        <v>331</v>
+      </c>
+      <c r="E157" s="15">
+        <v>6</v>
+      </c>
+      <c r="F157" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C158" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="15">
+        <v>328</v>
+      </c>
+      <c r="E158" s="15">
+        <v>9</v>
+      </c>
+      <c r="F158" s="15">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B159" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" s="15">
+        <v>331</v>
+      </c>
+      <c r="E159" s="15">
+        <v>5</v>
+      </c>
+      <c r="F159" s="15">
+        <v>12.5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B160" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C160" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" s="15">
+        <v>311</v>
+      </c>
+      <c r="E160" s="15">
+        <v>4</v>
+      </c>
+      <c r="F160" s="15">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" s="15">
+        <v>322</v>
+      </c>
+      <c r="E161" s="15">
+        <v>4</v>
+      </c>
+      <c r="F161" s="15">
+        <v>9.25</v>
+      </c>
+      <c r="G161" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C162" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="15">
+        <v>338</v>
+      </c>
+      <c r="E162" s="15">
+        <v>2</v>
+      </c>
+      <c r="F162" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="15">
+        <v>368</v>
+      </c>
+      <c r="E163" s="15">
+        <v>4</v>
+      </c>
+      <c r="F163" s="15">
+        <v>10.75</v>
+      </c>
+      <c r="G163" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="15">
+        <v>347</v>
+      </c>
+      <c r="E164" s="15">
+        <v>7</v>
+      </c>
+      <c r="F164" s="15">
+        <v>12.5</v>
+      </c>
+      <c r="G164" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="15">
+        <v>347</v>
+      </c>
+      <c r="E165" s="15">
+        <v>4</v>
+      </c>
+      <c r="F165" s="15">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B166" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C166" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="15">
+        <v>333</v>
+      </c>
+      <c r="E166" s="15">
+        <v>3</v>
+      </c>
+      <c r="F166" s="15">
+        <v>9.25</v>
+      </c>
+      <c r="G166" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B167" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" s="15">
+        <v>321</v>
+      </c>
+      <c r="E167" s="15">
+        <v>6</v>
+      </c>
+      <c r="F167" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="G167" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B168" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C168" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" s="15">
+        <v>335</v>
+      </c>
+      <c r="E168" s="15">
+        <v>5</v>
+      </c>
+      <c r="F168" s="15">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B169" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" s="15">
+        <v>370</v>
+      </c>
+      <c r="E169" s="15">
+        <v>10</v>
+      </c>
+      <c r="F169" s="15">
+        <v>12.8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B170" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" s="15">
+        <v>343</v>
+      </c>
+      <c r="E170" s="15">
+        <v>7</v>
+      </c>
+      <c r="F170" s="15">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B171" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="15">
+        <v>353</v>
+      </c>
+      <c r="E171" s="15">
+        <v>9</v>
+      </c>
+      <c r="F171" s="15">
+        <v>11.75</v>
+      </c>
+      <c r="G171" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B172" t="str">
+        <f t="shared" si="0"/>
+        <v>200-299</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" s="15">
+        <v>279</v>
+      </c>
+      <c r="E172" s="15">
+        <v>9</v>
+      </c>
+      <c r="F172" s="15">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B173" t="str">
+        <f t="shared" si="0"/>
+        <v>300-399</v>
+      </c>
+      <c r="C173" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" s="15">
+        <v>333</v>
+      </c>
+      <c r="E173" s="15">
+        <v>7</v>
+      </c>
+      <c r="F173" s="15">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B174" t="str">
+        <f t="shared" ref="B174:B208" si="1">IF(D174&lt;200,"0-199",IF(D174&lt;300,"200-299",IF(D174&lt;400,"300-399",IF(D174&lt;500,"400-499",IF(D174&lt;600,"500-599","n/a")))))</f>
+        <v>300-399</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" s="15">
+        <v>366</v>
+      </c>
+      <c r="E174" s="15">
+        <v>11</v>
+      </c>
+      <c r="F174" s="15">
+        <v>12.5</v>
+      </c>
+      <c r="G174" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B175" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" s="15">
+        <v>329</v>
+      </c>
+      <c r="E175" s="15">
+        <v>4</v>
+      </c>
+      <c r="F175" s="15">
+        <v>11.42</v>
+      </c>
+      <c r="G175" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B176" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" s="15">
+        <v>348</v>
+      </c>
+      <c r="E176" s="15">
+        <v>9</v>
+      </c>
+      <c r="F176" s="15">
+        <v>11.75</v>
+      </c>
+      <c r="G176" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B177" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" s="15">
+        <v>368</v>
+      </c>
+      <c r="E177" s="15">
+        <v>10</v>
+      </c>
+      <c r="F177" s="15">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B178" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" s="15">
+        <v>372</v>
+      </c>
+      <c r="E178" s="15">
+        <v>9</v>
+      </c>
+      <c r="F178" s="15">
+        <v>12.67</v>
+      </c>
+      <c r="G178" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B179" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" s="15">
+        <v>373</v>
+      </c>
+      <c r="E179" s="15">
+        <v>11</v>
+      </c>
+      <c r="F179" s="15">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B180" t="str">
+        <f t="shared" si="1"/>
+        <v>400-499</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" s="15">
+        <v>416</v>
+      </c>
+      <c r="E180" s="15">
+        <v>3</v>
+      </c>
+      <c r="F180" s="15">
+        <v>11.75</v>
+      </c>
+      <c r="G180" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B181" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" s="15">
+        <v>320</v>
+      </c>
+      <c r="E181" s="15">
+        <v>4</v>
+      </c>
+      <c r="F181" s="15">
+        <v>11.33</v>
+      </c>
+      <c r="G181" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B182" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" s="15">
+        <v>367</v>
+      </c>
+      <c r="E182" s="15">
+        <v>5</v>
+      </c>
+      <c r="F182" s="15">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B183" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" s="15">
+        <v>399</v>
+      </c>
+      <c r="E183" s="15">
+        <v>12</v>
+      </c>
+      <c r="F183" s="15">
+        <v>13.83</v>
+      </c>
+      <c r="G183" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B184" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" s="15">
+        <v>328</v>
+      </c>
+      <c r="E184" s="15">
+        <v>1</v>
+      </c>
+      <c r="F184" s="15">
+        <v>8.75</v>
+      </c>
+      <c r="G184" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B185" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" s="15">
+        <v>341</v>
+      </c>
+      <c r="E185" s="15">
+        <v>10</v>
+      </c>
+      <c r="F185" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="G185" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B186" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" s="15">
+        <v>353</v>
+      </c>
+      <c r="E186" s="15">
+        <v>7</v>
+      </c>
+      <c r="F186" s="15">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B187" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" s="15">
+        <v>366</v>
+      </c>
+      <c r="E187" s="15">
+        <v>9</v>
+      </c>
+      <c r="F187" s="15">
+        <v>12.25</v>
+      </c>
+      <c r="G187" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B188" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" s="15">
+        <v>337</v>
+      </c>
+      <c r="E188" s="15">
+        <v>5</v>
+      </c>
+      <c r="F188" s="15">
+        <v>12.25</v>
+      </c>
+      <c r="G188" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B189" t="str">
+        <f t="shared" si="1"/>
+        <v>200-299</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" s="15">
+        <v>288</v>
+      </c>
+      <c r="E189" s="15">
+        <v>4</v>
+      </c>
+      <c r="F189" s="15">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B190" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" s="15">
+        <v>352</v>
+      </c>
+      <c r="E190" s="15">
+        <v>7</v>
+      </c>
+      <c r="F190" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="G190" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B191" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" s="15">
+        <v>363</v>
+      </c>
+      <c r="E191" s="15">
+        <v>9</v>
+      </c>
+      <c r="F191" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="G191" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B192" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" s="15">
+        <v>373</v>
+      </c>
+      <c r="E192" s="15">
+        <v>8</v>
+      </c>
+      <c r="F192" s="15">
+        <v>12.75</v>
+      </c>
+      <c r="G192" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B193" t="str">
+        <f t="shared" si="1"/>
+        <v>200-299</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" s="15">
+        <v>278</v>
+      </c>
+      <c r="E193" s="15">
+        <v>4</v>
+      </c>
+      <c r="F193" s="15">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B194" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" s="15">
+        <v>339</v>
+      </c>
+      <c r="E194" s="15">
+        <v>3</v>
+      </c>
+      <c r="F194" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B195" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" s="15">
+        <v>312</v>
+      </c>
+      <c r="E195" s="15">
+        <v>5</v>
+      </c>
+      <c r="F195" s="15">
+        <v>10.75</v>
+      </c>
+      <c r="G195" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" s="15">
+        <v>327</v>
+      </c>
+      <c r="E196" s="15">
+        <v>5</v>
+      </c>
+      <c r="F196" s="15">
+        <v>10.42</v>
+      </c>
+      <c r="G196" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B197" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" s="15">
+        <v>334</v>
+      </c>
+      <c r="E197" s="15">
+        <v>5</v>
+      </c>
+      <c r="F197" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="G197" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B198" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" s="15">
+        <v>360</v>
+      </c>
+      <c r="E198" s="15">
+        <v>8</v>
+      </c>
+      <c r="F198" s="15">
+        <v>11.75</v>
+      </c>
+      <c r="G198" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B199" t="str">
+        <f t="shared" si="1"/>
+        <v>200-299</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" s="15">
+        <v>272</v>
+      </c>
+      <c r="E199" s="15">
+        <v>4</v>
+      </c>
+      <c r="F199" s="15">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B200" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" s="15">
+        <v>310</v>
+      </c>
+      <c r="E200" s="15">
+        <v>3</v>
+      </c>
+      <c r="F200" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="G200" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B201" t="str">
+        <f t="shared" si="1"/>
+        <v>200-299</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" s="15">
+        <v>276</v>
+      </c>
+      <c r="E201" s="15">
+        <v>1</v>
+      </c>
+      <c r="F201" s="15">
+        <v>9.67</v>
+      </c>
+      <c r="G201" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B202" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="15">
+        <v>340</v>
+      </c>
+      <c r="E202" s="15">
+        <v>7</v>
+      </c>
+      <c r="F202" s="15">
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B203" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" s="15">
+        <v>354</v>
+      </c>
+      <c r="E203" s="15">
+        <v>11</v>
+      </c>
+      <c r="F203" s="15">
+        <v>15</v>
+      </c>
+      <c r="G203" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B204" t="str">
+        <f t="shared" si="1"/>
+        <v>200-299</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" s="15">
+        <v>276</v>
+      </c>
+      <c r="E204" s="15">
+        <v>2</v>
+      </c>
+      <c r="F204" s="15">
+        <v>8.25</v>
+      </c>
+      <c r="G204" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C205" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" s="15">
+        <v>364</v>
+      </c>
+      <c r="E205" s="15">
+        <v>8</v>
+      </c>
+      <c r="F205" s="15">
+        <v>13</v>
+      </c>
+      <c r="G205" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B206" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C206" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" s="15">
+        <v>354</v>
+      </c>
+      <c r="E206" s="15">
+        <v>7</v>
+      </c>
+      <c r="F206" s="15">
+        <v>13</v>
+      </c>
+      <c r="G206" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B207" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" s="15">
+        <v>343</v>
+      </c>
+      <c r="E207" s="15">
+        <v>6</v>
+      </c>
+      <c r="F207" s="15">
+        <v>11</v>
+      </c>
+      <c r="G207" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B208" t="str">
+        <f t="shared" si="1"/>
+        <v>300-399</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" s="15">
+        <v>350</v>
+      </c>
+      <c r="E208" s="15">
+        <v>6</v>
+      </c>
+      <c r="F208" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="G208" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B209" t="str">
+        <f t="shared" ref="B209:B263" si="2">IF(D209&lt;200,"0-199",IF(D209&lt;300,"200-299",IF(D209&lt;400,"300-399",IF(D209&lt;500,"400-499",IF(D209&lt;600,"500-599","n/a")))))</f>
+        <v>0-199</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" s="15">
+        <v>182</v>
+      </c>
+      <c r="E209" s="15">
+        <v>3</v>
+      </c>
+      <c r="F209" s="15">
+        <v>8.25</v>
+      </c>
+      <c r="G209" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B210" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C210" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" s="15">
+        <v>131</v>
+      </c>
+      <c r="E210" s="15">
+        <v>4</v>
+      </c>
+      <c r="F210" s="15">
+        <v>6.75</v>
+      </c>
+      <c r="G210" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B211" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" s="15">
+        <v>136</v>
+      </c>
+      <c r="E211" s="15">
+        <v>4</v>
+      </c>
+      <c r="F211" s="15">
+        <v>8</v>
+      </c>
+      <c r="G211" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B212" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C212" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" s="15">
+        <v>193</v>
+      </c>
+      <c r="E212" s="15">
+        <v>4</v>
+      </c>
+      <c r="F212" s="15">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B213" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" s="15">
+        <v>129</v>
+      </c>
+      <c r="E213" s="15">
+        <v>4</v>
+      </c>
+      <c r="F213" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G213" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B214" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" s="15">
+        <v>214</v>
+      </c>
+      <c r="E214" s="15">
+        <v>6</v>
+      </c>
+      <c r="F214" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="G214" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B215" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" s="15">
+        <v>162</v>
+      </c>
+      <c r="E215" s="15">
+        <v>6</v>
+      </c>
+      <c r="F215" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="G215" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B216" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" s="15">
+        <v>227</v>
+      </c>
+      <c r="E216" s="15">
+        <v>4</v>
+      </c>
+      <c r="F216" s="15">
+        <v>8.75</v>
+      </c>
+      <c r="G216" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B217" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C217" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" s="15">
+        <v>226</v>
+      </c>
+      <c r="E217" s="15">
+        <v>5</v>
+      </c>
+      <c r="F217" s="15">
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B218" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C218" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" s="15">
+        <v>215</v>
+      </c>
+      <c r="E218" s="15">
+        <v>4</v>
+      </c>
+      <c r="F218" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="G218" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B219" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" s="15">
+        <v>197</v>
+      </c>
+      <c r="E219" s="15">
+        <v>2</v>
+      </c>
+      <c r="F219" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G219" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B220" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" s="15">
+        <v>112</v>
+      </c>
+      <c r="E220" s="15">
+        <v>3</v>
+      </c>
+      <c r="F220" s="15">
+        <v>6</v>
+      </c>
+      <c r="G220" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B221" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" s="15">
+        <v>156</v>
+      </c>
+      <c r="E221" s="15">
+        <v>5</v>
+      </c>
+      <c r="F221" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G221" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B222" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" s="15">
+        <v>204</v>
+      </c>
+      <c r="E222" s="15">
+        <v>6</v>
+      </c>
+      <c r="F222" s="15">
+        <v>9</v>
+      </c>
+      <c r="G222" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B223" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" s="15">
+        <v>298</v>
+      </c>
+      <c r="E223" s="15">
+        <v>4</v>
+      </c>
+      <c r="F223" s="15">
+        <v>7.75</v>
+      </c>
+      <c r="G223" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B224" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C224" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" s="15">
+        <v>109</v>
+      </c>
+      <c r="E224" s="15">
+        <v>6</v>
+      </c>
+      <c r="F224" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G224" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B225" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" s="15">
+        <v>231</v>
+      </c>
+      <c r="E225" s="15">
+        <v>8</v>
+      </c>
+      <c r="F225" s="15">
+        <v>11.08</v>
+      </c>
+      <c r="G225" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B226" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C226" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" s="15">
+        <v>127</v>
+      </c>
+      <c r="E226" s="15">
+        <v>5</v>
+      </c>
+      <c r="F226" s="15">
+        <v>7.25</v>
+      </c>
+      <c r="G226" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B227" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" s="15">
+        <v>184</v>
+      </c>
+      <c r="E227" s="15">
+        <v>3</v>
+      </c>
+      <c r="F227" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G227" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B228" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" s="15">
+        <v>89</v>
+      </c>
+      <c r="E228" s="15">
+        <v>5</v>
+      </c>
+      <c r="F228" s="15">
+        <v>8</v>
+      </c>
+      <c r="G228" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B229" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C229" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" s="15">
+        <v>93</v>
+      </c>
+      <c r="E229" s="15">
+        <v>3</v>
+      </c>
+      <c r="F229" s="15">
+        <v>6.67</v>
+      </c>
+      <c r="G229" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B230" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C230" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" s="15">
+        <v>176</v>
+      </c>
+      <c r="E230" s="15">
+        <v>4</v>
+      </c>
+      <c r="F230" s="15">
+        <v>7.33</v>
+      </c>
+      <c r="G230" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B231" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C231" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" s="15">
+        <v>131</v>
+      </c>
+      <c r="E231" s="15">
+        <v>6</v>
+      </c>
+      <c r="F231" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="G231" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B232" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C232" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" s="15">
+        <v>177</v>
+      </c>
+      <c r="E232" s="15">
+        <v>5</v>
+      </c>
+      <c r="F232" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G232" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B233" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C233" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" s="15">
+        <v>171</v>
+      </c>
+      <c r="E233" s="15">
+        <v>4</v>
+      </c>
+      <c r="F233" s="15">
+        <v>9.17</v>
+      </c>
+      <c r="G233" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B234" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" s="15">
+        <v>223</v>
+      </c>
+      <c r="E234" s="15">
+        <v>5</v>
+      </c>
+      <c r="F234" s="15">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B235" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C235" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" s="15">
+        <v>193</v>
+      </c>
+      <c r="E235" s="15">
+        <v>4</v>
+      </c>
+      <c r="F235" s="15">
+        <v>7.75</v>
+      </c>
+      <c r="G235" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B236" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C236" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" s="15">
+        <v>179</v>
+      </c>
+      <c r="E236" s="15">
+        <v>4</v>
+      </c>
+      <c r="F236" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G236" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B237" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C237" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" s="15">
+        <v>125</v>
+      </c>
+      <c r="E237" s="15">
+        <v>6</v>
+      </c>
+      <c r="F237" s="15">
+        <v>6</v>
+      </c>
+      <c r="G237" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B238" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C238" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" s="15">
+        <v>149</v>
+      </c>
+      <c r="E238" s="15">
+        <v>5</v>
+      </c>
+      <c r="F238" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="G238" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B239" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C239" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" s="15">
+        <v>108</v>
+      </c>
+      <c r="E239" s="15">
+        <v>5</v>
+      </c>
+      <c r="F239" s="15">
+        <v>6</v>
+      </c>
+      <c r="G239" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B240" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C240" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" s="15">
+        <v>152</v>
+      </c>
+      <c r="E240" s="15">
+        <v>3</v>
+      </c>
+      <c r="F240" s="15">
+        <v>6</v>
+      </c>
+      <c r="G240" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B241" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C241" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" s="15">
+        <v>55</v>
+      </c>
+      <c r="E241" s="15">
+        <v>4</v>
+      </c>
+      <c r="F241" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G241" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B242" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C242" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" s="15">
+        <v>165</v>
+      </c>
+      <c r="E242" s="15">
+        <v>4</v>
+      </c>
+      <c r="F242" s="15">
+        <v>8.75</v>
+      </c>
+      <c r="G242" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B243" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C243" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" s="15">
+        <v>197</v>
+      </c>
+      <c r="E243" s="15">
+        <v>5</v>
+      </c>
+      <c r="F243" s="15">
+        <v>8</v>
+      </c>
+      <c r="G243" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B244" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C244" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" s="15">
+        <v>131</v>
+      </c>
+      <c r="E244" s="15">
+        <v>4</v>
+      </c>
+      <c r="F244" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="G244" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B245" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C245" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" s="15">
+        <v>110</v>
+      </c>
+      <c r="E245" s="15">
+        <v>6</v>
+      </c>
+      <c r="F245" s="15">
+        <v>6</v>
+      </c>
+      <c r="G245" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B246" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C246" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" s="15">
+        <v>191</v>
+      </c>
+      <c r="E246" s="15">
+        <v>5</v>
+      </c>
+      <c r="F246" s="15">
+        <v>8.25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B247" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C247" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" s="15">
+        <v>105</v>
+      </c>
+      <c r="E247" s="15">
+        <v>7</v>
+      </c>
+      <c r="F247" s="15">
+        <v>8</v>
+      </c>
+      <c r="G247" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B248" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C248" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" s="15">
+        <v>240</v>
+      </c>
+      <c r="E248" s="15">
+        <v>3</v>
+      </c>
+      <c r="F248" s="15">
+        <v>8</v>
+      </c>
+      <c r="G248" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B249" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C249" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" s="15">
+        <v>130</v>
+      </c>
+      <c r="E249" s="15">
+        <v>3</v>
+      </c>
+      <c r="F249" s="15">
+        <v>9.25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B250" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C250" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" s="15">
+        <v>265</v>
+      </c>
+      <c r="E250" s="15">
+        <v>4</v>
+      </c>
+      <c r="F250" s="15">
+        <v>10.6</v>
+      </c>
+      <c r="G250" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B251" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C251" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" s="15">
+        <v>207</v>
+      </c>
+      <c r="E251" s="15">
+        <v>3</v>
+      </c>
+      <c r="F251" s="15">
+        <v>7.25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B252" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C252" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" s="15">
+        <v>88</v>
+      </c>
+      <c r="E252" s="15">
+        <v>3</v>
+      </c>
+      <c r="F252" s="15">
+        <v>5</v>
+      </c>
+      <c r="G252" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B253" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C253" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" s="15">
+        <v>178</v>
+      </c>
+      <c r="E253" s="15">
+        <v>3</v>
+      </c>
+      <c r="F253" s="15">
+        <v>7.08</v>
+      </c>
+      <c r="G253" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B254" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C254" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" s="15">
+        <v>158</v>
+      </c>
+      <c r="E254" s="15">
+        <v>5</v>
+      </c>
+      <c r="F254" s="15">
+        <v>9.67</v>
+      </c>
+      <c r="G254" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B255" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C255" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" s="15">
+        <v>188</v>
+      </c>
+      <c r="E255" s="15">
+        <v>6</v>
+      </c>
+      <c r="F255" s="15">
+        <v>8.25</v>
+      </c>
+      <c r="G255" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B256" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C256" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" s="15">
+        <v>151</v>
+      </c>
+      <c r="E256" s="15">
+        <v>6</v>
+      </c>
+      <c r="F256" s="15">
+        <v>8.75</v>
+      </c>
+      <c r="G256" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B257" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C257" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" s="15">
+        <v>132</v>
+      </c>
+      <c r="E257" s="15">
+        <v>4</v>
+      </c>
+      <c r="F257" s="15">
+        <v>9</v>
+      </c>
+      <c r="G257" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B258" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C258" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" s="15">
+        <v>142</v>
+      </c>
+      <c r="E258" s="15">
+        <v>2</v>
+      </c>
+      <c r="F258" s="15">
+        <v>6.67</v>
+      </c>
+      <c r="G258" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B259" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C259" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" s="15">
+        <v>204</v>
+      </c>
+      <c r="E259" s="15">
+        <v>5</v>
+      </c>
+      <c r="F259" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="G259" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B260" t="str">
+        <f t="shared" si="2"/>
+        <v>200-299</v>
+      </c>
+      <c r="C260" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" s="15">
+        <v>205</v>
+      </c>
+      <c r="E260" s="15">
+        <v>6</v>
+      </c>
+      <c r="F260" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="G260" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B261" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C261" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" s="15">
+        <v>123</v>
+      </c>
+      <c r="E261" s="15">
+        <v>5</v>
+      </c>
+      <c r="F261" s="15">
+        <v>7.67</v>
+      </c>
+      <c r="G261" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B262" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C262" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" s="15">
+        <v>180</v>
+      </c>
+      <c r="E262" s="15">
+        <v>7</v>
+      </c>
+      <c r="F262" s="15">
+        <v>8.25</v>
+      </c>
+      <c r="G262" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B263" t="str">
+        <f t="shared" si="2"/>
+        <v>0-199</v>
+      </c>
+      <c r="C263" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" s="15">
+        <v>62</v>
+      </c>
+      <c r="E263" s="15">
+        <v>4</v>
+      </c>
+      <c r="F263" s="15">
+        <v>8</v>
+      </c>
+      <c r="G263" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -9277,7 +14049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:I42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -10182,7 +14956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/841Ops and Supply Chain Analytics/S4/Data Supporting Edgecomb Case.xlsx
+++ b/841Ops and Supply Chain Analytics/S4/Data Supporting Edgecomb Case.xlsx
@@ -6272,17 +6272,8 @@
   <dataFields count="1">
     <dataField name="Average of Stops" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="4">
     <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7047,8 +7038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="82" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/841Ops and Supply Chain Analytics/S4/Data Supporting Edgecomb Case.xlsx
+++ b/841Ops and Supply Chain Analytics/S4/Data Supporting Edgecomb Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/841Ops and Supply Chain Analytics/S4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="391" documentId="11_01C03510F38A39DD9F668FBCC5B96EC5040C0F2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B32E45E7-5C72-2748-AAC3-DF615C74592D}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="11_01C03510F38A39DD9F668FBCC5B96EC5040C0F2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E346C4D5-99FF-D445-A54C-E214209B0D2A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" tabRatio="795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="8" r:id="rId1"/>
@@ -21,20 +21,13 @@
     <sheet name="Exhibit 5 Sector 3" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exhbit 4 Williams'!$B$7:$F$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exhbit 4 Williams'!$B$7:$F$263</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Exhibit 4 Spencer'!$C$54:$E$54</definedName>
     <definedName name="_Hlk347318046" localSheetId="1">'Exhibit 2'!$C$8</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Exhbit 4 Williams'!$B$8:$C$138</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Exhbit 4 Williams'!$E$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Exhbit 4 Williams'!$E$8:$E$138</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Exhbit 4 Williams'!$B$47:$C$47</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Exhbit 4 Williams'!$E$47:$F$47</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Exhbit 4 Williams'!$E$6:$F$47</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId7"/>
-    <pivotCache cacheId="19" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -53,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="62">
   <si>
     <t>Month</t>
   </si>
@@ -265,6 +258,18 @@
   <si>
     <t>Charlottesville</t>
   </si>
+  <si>
+    <t>Total Average of Stops</t>
+  </si>
+  <si>
+    <t>Total Average of Hours</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Chi quared</t>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -347,6 +352,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -386,7 +397,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -439,6 +450,13 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -451,13 +469,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,71 +1261,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-3826-6542-84B4-EF2F70047DBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Exhbit 4 Williams'!$L$9:$L$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Exhbit 4 Williams'!$I$11:$I$16</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0-199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200-299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300-399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400-499</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500-599</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Exhbit 4 Williams'!$L$11:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.4285714285714288</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2272727272727275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3620689655172411</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.333333333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-3826-6542-84B4-EF2F70047DBA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2387,6 +2334,19 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2399,7 +2359,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exhbit 4 Williams'!$O$9:$O$10</c:f>
+              <c:f>'Exhbit 4 Williams'!$P$9:$P$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2477,7 +2437,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Exhbit 4 Williams'!$N$11:$N$16</c:f>
+              <c:f>'Exhbit 4 Williams'!$O$11:$O$16</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2500,7 +2460,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exhbit 4 Williams'!$O$11:$O$16</c:f>
+              <c:f>'Exhbit 4 Williams'!$P$11:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2533,7 +2493,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exhbit 4 Williams'!$P$9:$P$10</c:f>
+              <c:f>'Exhbit 4 Williams'!$Q$9:$Q$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2611,7 +2571,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Exhbit 4 Williams'!$N$11:$N$16</c:f>
+              <c:f>'Exhbit 4 Williams'!$O$11:$O$16</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2634,7 +2594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exhbit 4 Williams'!$P$11:$P$16</c:f>
+              <c:f>'Exhbit 4 Williams'!$Q$11:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3043,45 +3003,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anthony Ramelo" refreshedDate="45532.645624189812" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="131" xr:uid="{D2E89E95-DEC1-0C4C-9632-68EC2458A3C9}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B7:F138" sheet="Exhbit 4 Williams"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Range" numFmtId="0">
-      <sharedItems count="5">
-        <s v="0-199"/>
-        <s v="200-299"/>
-        <s v="300-399"/>
-        <s v="400-499"/>
-        <s v="500-599"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Driver" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Williams (New)"/>
-        <s v="Spencer (Experienced)"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Miles" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55" maxValue="540"/>
-    </cacheField>
-    <cacheField name="Stops" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
-    </cacheField>
-    <cacheField name="Hours" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.42" maxValue="16"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anthony Ramelo" refreshedDate="45532.645918518516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="256" xr:uid="{73E16035-DF01-4541-B038-47AEF8788555}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B7:G263" sheet="Exhbit 4 Williams"/>
@@ -3125,928 +3046,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="131">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="55"/>
-    <n v="4"/>
-    <n v="7.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="110"/>
-    <n v="6"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="112"/>
-    <n v="3"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="119"/>
-    <n v="3"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="123"/>
-    <n v="5"/>
-    <n v="7.67"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="129"/>
-    <n v="4"/>
-    <n v="7.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="130"/>
-    <n v="3"/>
-    <n v="9.25"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="132"/>
-    <n v="4"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="145"/>
-    <n v="6"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="147"/>
-    <n v="7"/>
-    <n v="9.1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="147"/>
-    <n v="3"/>
-    <n v="5.42"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="157"/>
-    <n v="5"/>
-    <n v="7.83"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="163"/>
-    <n v="6"/>
-    <n v="8.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="164"/>
-    <n v="6"/>
-    <n v="7.67"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="171"/>
-    <n v="4"/>
-    <n v="9.17"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="174"/>
-    <n v="8"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="174"/>
-    <n v="8"/>
-    <n v="9.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="176"/>
-    <n v="5"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="176"/>
-    <n v="7"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="176"/>
-    <n v="6"/>
-    <n v="8.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="177"/>
-    <n v="5"/>
-    <n v="7.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="178"/>
-    <n v="3"/>
-    <n v="7.1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="179"/>
-    <n v="3"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="179"/>
-    <n v="2"/>
-    <n v="8.67"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="181"/>
-    <n v="9"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="182"/>
-    <n v="8"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="182"/>
-    <n v="3"/>
-    <n v="8.25"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="186"/>
-    <n v="9"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="188"/>
-    <n v="4"/>
-    <n v="6.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="188"/>
-    <n v="6"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="189"/>
-    <n v="8"/>
-    <n v="8.25"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="189"/>
-    <n v="8"/>
-    <n v="8.5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="191"/>
-    <n v="6"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="193"/>
-    <n v="4"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="193"/>
-    <n v="5"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="193"/>
-    <n v="4"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="193"/>
-    <n v="4"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="195"/>
-    <n v="5"/>
-    <n v="9.75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="197"/>
-    <n v="5"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="199"/>
-    <n v="8"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="200"/>
-    <n v="7"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="201"/>
-    <n v="11"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="203"/>
-    <n v="8"/>
-    <n v="13.08"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="203"/>
-    <n v="11"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="204"/>
-    <n v="6"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="205"/>
-    <n v="2"/>
-    <n v="8.42"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="206"/>
-    <n v="2"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="207"/>
-    <n v="3"/>
-    <n v="7.25"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="208"/>
-    <n v="5"/>
-    <n v="9.33"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="214"/>
-    <n v="6"/>
-    <n v="8.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="216"/>
-    <n v="9"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="218"/>
-    <n v="4"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="221"/>
-    <n v="4"/>
-    <n v="8.25"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="223"/>
-    <n v="5"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="225"/>
-    <n v="12"/>
-    <n v="13.17"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="225"/>
-    <n v="4"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="226"/>
-    <n v="4"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="226"/>
-    <n v="9"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="227"/>
-    <n v="9"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="228"/>
-    <n v="10"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="237"/>
-    <n v="7"/>
-    <n v="10.33"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="238"/>
-    <n v="3"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="240"/>
-    <n v="3"/>
-    <n v="8.67"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="241"/>
-    <n v="5"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="249"/>
-    <n v="2"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="251"/>
-    <n v="8"/>
-    <n v="9.75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="253"/>
-    <n v="6"/>
-    <n v="10.67"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="254"/>
-    <n v="3"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="258"/>
-    <n v="6"/>
-    <n v="12.17"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="261"/>
-    <n v="7"/>
-    <n v="11.4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="262"/>
-    <n v="6"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="262"/>
-    <n v="8"/>
-    <n v="9.25"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="262"/>
-    <n v="6"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="264"/>
-    <n v="1"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="265"/>
-    <n v="4"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="275"/>
-    <n v="1"/>
-    <n v="9.33"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="275"/>
-    <n v="6"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="276"/>
-    <n v="1"/>
-    <n v="9.67"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="279"/>
-    <n v="9"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="279"/>
-    <n v="6"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="286"/>
-    <n v="6"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="286"/>
-    <n v="2"/>
-    <n v="9.5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="290"/>
-    <n v="2"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="292"/>
-    <n v="3"/>
-    <n v="10.75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="292"/>
-    <n v="4"/>
-    <n v="11.33"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="292"/>
-    <n v="5"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="298"/>
-    <n v="4"/>
-    <n v="7.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="306"/>
-    <n v="11"/>
-    <n v="11.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="310"/>
-    <n v="6"/>
-    <n v="10.83"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="311"/>
-    <n v="9"/>
-    <n v="13.25"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="311"/>
-    <n v="8"/>
-    <n v="11.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="312"/>
-    <n v="10"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="320"/>
-    <n v="4"/>
-    <n v="11.33"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="320"/>
-    <n v="9"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="321"/>
-    <n v="4"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="321"/>
-    <n v="6"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="326"/>
-    <n v="6"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="331"/>
-    <n v="3"/>
-    <n v="10.17"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="331"/>
-    <n v="5"/>
-    <n v="12.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
-    <n v="3"/>
-    <n v="9.25"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="334"/>
-    <n v="5"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="335"/>
-    <n v="12"/>
-    <n v="10.67"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="338"/>
-    <n v="2"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="339"/>
-    <n v="9"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="340"/>
-    <n v="7"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="341"/>
-    <n v="10"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="345"/>
-    <n v="2"/>
-    <n v="8.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="346"/>
-    <n v="9"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="350"/>
-    <n v="6"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="352"/>
-    <n v="6"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="352"/>
-    <n v="7"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="364"/>
-    <n v="8"/>
-    <n v="13"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="364"/>
-    <n v="9"/>
-    <n v="12.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="368"/>
-    <n v="3"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="369"/>
-    <n v="7"/>
-    <n v="11.75"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="372"/>
-    <n v="11"/>
-    <n v="13.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="375"/>
-    <n v="2"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="378"/>
-    <n v="2"/>
-    <n v="10.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="379"/>
-    <n v="5"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="379"/>
-    <n v="8"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="382"/>
-    <n v="4"/>
-    <n v="9.83"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="386"/>
-    <n v="5"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="392"/>
-    <n v="5"/>
-    <n v="12.85"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="398"/>
-    <n v="1"/>
-    <n v="10.33"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="401"/>
-    <n v="4"/>
-    <n v="13.25"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="415"/>
-    <n v="3"/>
-    <n v="11.75"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="427"/>
-    <n v="5"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="440"/>
-    <n v="4"/>
-    <n v="11.5"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="522"/>
-    <n v="8"/>
-    <n v="15.75"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="536"/>
-    <n v="2"/>
-    <n v="13.32"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="540"/>
-    <n v="11"/>
-    <n v="16"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="256">
   <r>
     <x v="0"/>
@@ -6100,9 +5099,91 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FAE9814-BC00-6E4D-8676-80CE72B972E1}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="N9:Q16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70D87CF1-1A57-1649-A25D-02CCEFE7A109}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I46:M53" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Stops" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of Hours" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FBC447A8-51AD-2A43-9F1B-CB6DF5A8BE48}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="O9:R16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="0"/>
@@ -6114,15 +5195,17 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -6164,7 +5247,7 @@
   <dataFields count="1">
     <dataField name="Average of Hours" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="0" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6189,6 +5272,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6202,9 +5297,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36516E43-9315-DE40-9A57-E6CF9A10A225}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="I9:M16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36516E43-9315-DE40-9A57-E6CF9A10A225}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="I9:L16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -6220,7 +5315,7 @@
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6255,15 +5350,12 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -6644,10 +5736,10 @@
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -6674,49 +5766,49 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
@@ -7036,72 +6128,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Q263"/>
+  <dimension ref="A2:R263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="F56" zoomScale="82" workbookViewId="0">
+      <selection activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7114,21 +6207,21 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -7140,16 +6233,16 @@
       <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
-        <f>IF(D8&lt;200,"0-199",IF(D8&lt;300,"200-299",IF(D8&lt;400,"300-399",IF(D8&lt;500,"400-499",IF(D8&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" ref="B8:B39" si="0">IF(D8&lt;200,"0-199",IF(D8&lt;300,"200-299",IF(D8&lt;400,"300-399",IF(D8&lt;500,"400-499",IF(D8&lt;600,"500-599","n/a")))))</f>
         <v>0-199</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="15">
@@ -7162,12 +6255,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
-        <f>IF(D9&lt;200,"0-199",IF(D9&lt;300,"200-299",IF(D9&lt;400,"300-399",IF(D9&lt;500,"400-499",IF(D9&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="15">
@@ -7179,25 +6272,25 @@
       <c r="F9" s="15">
         <v>6</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="O9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="P9" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
-        <f>IF(D10&lt;200,"0-199",IF(D10&lt;300,"200-299",IF(D10&lt;400,"300-399",IF(D10&lt;500,"400-499",IF(D10&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="15">
@@ -7209,7 +6302,7 @@
       <c r="F10" s="15">
         <v>6</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="21" t="s">
         <v>42</v>
       </c>
       <c r="J10" t="s">
@@ -7219,30 +6312,27 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="O10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>39</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
-        <f>IF(D11&lt;200,"0-199",IF(D11&lt;300,"200-299",IF(D11&lt;400,"300-399",IF(D11&lt;500,"400-499",IF(D11&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="15">
@@ -7254,40 +6344,37 @@
       <c r="F11" s="15">
         <v>8</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="23">
         <v>4.708333333333333</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="23">
         <v>6.1875</v>
       </c>
-      <c r="L11" s="27">
-        <v>4.4285714285714288</v>
-      </c>
-      <c r="M11" s="27">
-        <v>4.8536585365853657</v>
-      </c>
-      <c r="N11" s="26" t="s">
+      <c r="L11" s="23">
+        <v>5.3</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="28">
+      <c r="P11" s="24">
         <v>8.4837499999999988</v>
       </c>
-      <c r="P11" s="28">
+      <c r="Q11" s="24">
         <v>8.0325000000000006</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="R11" s="24">
         <v>8.3032500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
-        <f>IF(D12&lt;200,"0-199",IF(D12&lt;300,"200-299",IF(D12&lt;400,"300-399",IF(D12&lt;500,"400-499",IF(D12&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="15">
@@ -7299,40 +6386,37 @@
       <c r="F12" s="15">
         <v>7.67</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="23">
         <v>5.0384615384615383</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="23">
         <v>5.9047619047619051</v>
       </c>
-      <c r="L12" s="27">
-        <v>4.2272727272727275</v>
-      </c>
-      <c r="M12" s="27">
-        <v>5.0434782608695654</v>
-      </c>
-      <c r="N12" s="26" t="s">
+      <c r="L12" s="23">
+        <v>5.4255319148936172</v>
+      </c>
+      <c r="O12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="28">
+      <c r="P12" s="24">
         <v>9.9703846153846154</v>
       </c>
-      <c r="P12" s="28">
+      <c r="Q12" s="24">
         <v>9.2900000000000009</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="R12" s="24">
         <v>9.666382978723405</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
-        <f>IF(D13&lt;200,"0-199",IF(D13&lt;300,"200-299",IF(D13&lt;400,"300-399",IF(D13&lt;500,"400-499",IF(D13&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="15">
@@ -7344,40 +6428,37 @@
       <c r="F13" s="15">
         <v>7.5</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="23">
         <v>4.75</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="23">
         <v>6.5862068965517242</v>
       </c>
-      <c r="L13" s="27">
-        <v>6.3620689655172411</v>
-      </c>
-      <c r="M13" s="27">
-        <v>6.2947368421052632</v>
-      </c>
-      <c r="N13" s="26" t="s">
+      <c r="L13" s="23">
+        <v>6.1891891891891895</v>
+      </c>
+      <c r="O13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="28">
+      <c r="P13" s="24">
         <v>11.25</v>
       </c>
-      <c r="P13" s="28">
+      <c r="Q13" s="24">
         <v>11.22448275862069</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="R13" s="24">
         <v>11.23</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
-        <f>IF(D14&lt;200,"0-199",IF(D14&lt;300,"200-299",IF(D14&lt;400,"300-399",IF(D14&lt;500,"400-499",IF(D14&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="15">
@@ -7389,40 +6470,37 @@
       <c r="F14" s="15">
         <v>9.25</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="23">
         <v>4.5</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="23">
         <v>3.5</v>
       </c>
-      <c r="L14" s="27">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="M14" s="27">
-        <v>4.1428571428571432</v>
-      </c>
-      <c r="N14" s="26" t="s">
+      <c r="L14" s="23">
+        <v>4</v>
+      </c>
+      <c r="O14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="28">
+      <c r="P14" s="24">
         <v>13.625</v>
       </c>
-      <c r="P14" s="28">
+      <c r="Q14" s="24">
         <v>11.625</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="R14" s="24">
         <v>12.625</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
-        <f>IF(D15&lt;200,"0-199",IF(D15&lt;300,"200-299",IF(D15&lt;400,"300-399",IF(D15&lt;500,"400-499",IF(D15&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="15">
@@ -7434,38 +6512,37 @@
       <c r="F15" s="15">
         <v>9</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="23">
         <v>2</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="23">
         <v>9.5</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27">
+      <c r="L15" s="23">
         <v>7</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="28">
+      <c r="P15" s="24">
         <v>13.32</v>
       </c>
-      <c r="P15" s="28">
+      <c r="Q15" s="24">
         <v>15.875</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="R15" s="24">
         <v>15.023333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
-        <f>IF(D16&lt;200,"0-199",IF(D16&lt;300,"200-299",IF(D16&lt;400,"300-399",IF(D16&lt;500,"400-499",IF(D16&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="15">
@@ -7477,40 +6554,37 @@
       <c r="F16" s="15">
         <v>8</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="23">
         <v>4.8032786885245899</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="23">
         <v>6.2857142857142856</v>
       </c>
-      <c r="L16" s="27">
-        <v>5.2880000000000003</v>
-      </c>
-      <c r="M16" s="27">
-        <v>5.4453125</v>
-      </c>
-      <c r="N16" s="26" t="s">
+      <c r="L16" s="23">
+        <v>5.5954198473282446</v>
+      </c>
+      <c r="O16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="28">
+      <c r="P16" s="24">
         <v>9.7280327868852474</v>
       </c>
-      <c r="P16" s="28">
+      <c r="Q16" s="24">
         <v>10.058857142857144</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="R16" s="24">
         <v>9.9048091603053425</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
-        <f>IF(D17&lt;200,"0-199",IF(D17&lt;300,"200-299",IF(D17&lt;400,"300-399",IF(D17&lt;500,"400-499",IF(D17&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="15">
@@ -7525,10 +6599,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
-        <f>IF(D18&lt;200,"0-199",IF(D18&lt;300,"200-299",IF(D18&lt;400,"300-399",IF(D18&lt;500,"400-499",IF(D18&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="15">
@@ -7543,10 +6617,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
-        <f>IF(D19&lt;200,"0-199",IF(D19&lt;300,"200-299",IF(D19&lt;400,"300-399",IF(D19&lt;500,"400-499",IF(D19&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="15">
@@ -7561,10 +6635,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
-        <f>IF(D20&lt;200,"0-199",IF(D20&lt;300,"200-299",IF(D20&lt;400,"300-399",IF(D20&lt;500,"400-499",IF(D20&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="15">
@@ -7579,10 +6653,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
-        <f>IF(D21&lt;200,"0-199",IF(D21&lt;300,"200-299",IF(D21&lt;400,"300-399",IF(D21&lt;500,"400-499",IF(D21&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="15">
@@ -7597,10 +6671,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
-        <f>IF(D22&lt;200,"0-199",IF(D22&lt;300,"200-299",IF(D22&lt;400,"300-399",IF(D22&lt;500,"400-499",IF(D22&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="15">
@@ -7615,10 +6689,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
-        <f>IF(D23&lt;200,"0-199",IF(D23&lt;300,"200-299",IF(D23&lt;400,"300-399",IF(D23&lt;500,"400-499",IF(D23&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="15">
@@ -7633,10 +6707,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
-        <f>IF(D24&lt;200,"0-199",IF(D24&lt;300,"200-299",IF(D24&lt;400,"300-399",IF(D24&lt;500,"400-499",IF(D24&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="15">
@@ -7651,10 +6725,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
-        <f>IF(D25&lt;200,"0-199",IF(D25&lt;300,"200-299",IF(D25&lt;400,"300-399",IF(D25&lt;500,"400-499",IF(D25&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="15">
@@ -7669,10 +6743,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
-        <f>IF(D26&lt;200,"0-199",IF(D26&lt;300,"200-299",IF(D26&lt;400,"300-399",IF(D26&lt;500,"400-499",IF(D26&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="15">
@@ -7687,10 +6761,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
-        <f>IF(D27&lt;200,"0-199",IF(D27&lt;300,"200-299",IF(D27&lt;400,"300-399",IF(D27&lt;500,"400-499",IF(D27&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="15">
@@ -7705,10 +6779,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
-        <f>IF(D28&lt;200,"0-199",IF(D28&lt;300,"200-299",IF(D28&lt;400,"300-399",IF(D28&lt;500,"400-499",IF(D28&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="15">
@@ -7723,10 +6797,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
-        <f>IF(D29&lt;200,"0-199",IF(D29&lt;300,"200-299",IF(D29&lt;400,"300-399",IF(D29&lt;500,"400-499",IF(D29&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="15">
@@ -7741,10 +6815,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
-        <f>IF(D30&lt;200,"0-199",IF(D30&lt;300,"200-299",IF(D30&lt;400,"300-399",IF(D30&lt;500,"400-499",IF(D30&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="15">
@@ -7759,10 +6833,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
-        <f>IF(D31&lt;200,"0-199",IF(D31&lt;300,"200-299",IF(D31&lt;400,"300-399",IF(D31&lt;500,"400-499",IF(D31&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="15">
@@ -7777,10 +6851,10 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
-        <f>IF(D32&lt;200,"0-199",IF(D32&lt;300,"200-299",IF(D32&lt;400,"300-399",IF(D32&lt;500,"400-499",IF(D32&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="15">
@@ -7793,12 +6867,12 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
-        <f>IF(D33&lt;200,"0-199",IF(D33&lt;300,"200-299",IF(D33&lt;400,"300-399",IF(D33&lt;500,"400-499",IF(D33&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="15">
@@ -7811,12 +6885,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
-        <f>IF(D34&lt;200,"0-199",IF(D34&lt;300,"200-299",IF(D34&lt;400,"300-399",IF(D34&lt;500,"400-499",IF(D34&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="15">
@@ -7829,12 +6903,12 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
-        <f>IF(D35&lt;200,"0-199",IF(D35&lt;300,"200-299",IF(D35&lt;400,"300-399",IF(D35&lt;500,"400-499",IF(D35&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="15">
@@ -7847,12 +6921,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
-        <f>IF(D36&lt;200,"0-199",IF(D36&lt;300,"200-299",IF(D36&lt;400,"300-399",IF(D36&lt;500,"400-499",IF(D36&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="15">
@@ -7865,12 +6939,12 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
-        <f>IF(D37&lt;200,"0-199",IF(D37&lt;300,"200-299",IF(D37&lt;400,"300-399",IF(D37&lt;500,"400-499",IF(D37&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="15">
@@ -7883,12 +6957,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
-        <f>IF(D38&lt;200,"0-199",IF(D38&lt;300,"200-299",IF(D38&lt;400,"300-399",IF(D38&lt;500,"400-499",IF(D38&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="15">
@@ -7900,16 +6974,16 @@
       <c r="F38" s="15">
         <v>8.25</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
-        <f>IF(D39&lt;200,"0-199",IF(D39&lt;300,"200-299",IF(D39&lt;400,"300-399",IF(D39&lt;500,"400-499",IF(D39&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="0"/>
         <v>0-199</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15">
@@ -7921,16 +6995,16 @@
       <c r="F39" s="15">
         <v>8.5</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
-        <f>IF(D40&lt;200,"0-199",IF(D40&lt;300,"200-299",IF(D40&lt;400,"300-399",IF(D40&lt;500,"400-499",IF(D40&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" ref="B40:B71" si="1">IF(D40&lt;200,"0-199",IF(D40&lt;300,"200-299",IF(D40&lt;400,"300-399",IF(D40&lt;500,"400-499",IF(D40&lt;600,"500-599","n/a")))))</f>
         <v>0-199</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="15">
@@ -7942,16 +7016,16 @@
       <c r="F40" s="15">
         <v>11</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
-        <f>IF(D41&lt;200,"0-199",IF(D41&lt;300,"200-299",IF(D41&lt;400,"300-399",IF(D41&lt;500,"400-499",IF(D41&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>0-199</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="15">
@@ -7964,12 +7038,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
-        <f>IF(D42&lt;200,"0-199",IF(D42&lt;300,"200-299",IF(D42&lt;400,"300-399",IF(D42&lt;500,"400-499",IF(D42&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>0-199</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="15">
@@ -7982,12 +7056,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
-        <f>IF(D43&lt;200,"0-199",IF(D43&lt;300,"200-299",IF(D43&lt;400,"300-399",IF(D43&lt;500,"400-499",IF(D43&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>0-199</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="15">
@@ -8000,12 +7074,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
-        <f>IF(D44&lt;200,"0-199",IF(D44&lt;300,"200-299",IF(D44&lt;400,"300-399",IF(D44&lt;500,"400-499",IF(D44&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>0-199</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="15">
@@ -8018,12 +7092,12 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
-        <f>IF(D45&lt;200,"0-199",IF(D45&lt;300,"200-299",IF(D45&lt;400,"300-399",IF(D45&lt;500,"400-499",IF(D45&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>0-199</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="15">
@@ -8036,12 +7110,12 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
-        <f>IF(D46&lt;200,"0-199",IF(D46&lt;300,"200-299",IF(D46&lt;400,"300-399",IF(D46&lt;500,"400-499",IF(D46&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>0-199</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="15">
@@ -8053,13 +7127,16 @@
       <c r="F46" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
-        <f>IF(D47&lt;200,"0-199",IF(D47&lt;300,"200-299",IF(D47&lt;400,"300-399",IF(D47&lt;500,"400-499",IF(D47&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>0-199</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="15">
@@ -8071,13 +7148,22 @@
       <c r="F47" s="15">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
-        <f>IF(D48&lt;200,"0-199",IF(D48&lt;300,"200-299",IF(D48&lt;400,"300-399",IF(D48&lt;500,"400-499",IF(D48&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="15">
@@ -8089,13 +7175,22 @@
       <c r="F48" s="15">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I48" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
-        <f>IF(D49&lt;200,"0-199",IF(D49&lt;300,"200-299",IF(D49&lt;400,"300-399",IF(D49&lt;500,"400-499",IF(D49&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="15">
@@ -8107,13 +7202,28 @@
       <c r="F49" s="15">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I49" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="23">
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="K49" s="23">
+        <v>7.6609523809523807</v>
+      </c>
+      <c r="L49" s="23">
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="M49" s="23">
+        <v>7.6609523809523807</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
-        <f>IF(D50&lt;200,"0-199",IF(D50&lt;300,"200-299",IF(D50&lt;400,"300-399",IF(D50&lt;500,"400-499",IF(D50&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="15">
@@ -8125,13 +7235,28 @@
       <c r="F50" s="15">
         <v>13.08</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I50" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="23">
+        <v>4.2272727272727275</v>
+      </c>
+      <c r="K50" s="23">
+        <v>9.0727272727272723</v>
+      </c>
+      <c r="L50" s="23">
+        <v>4.2272727272727275</v>
+      </c>
+      <c r="M50" s="23">
+        <v>9.0727272727272723</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
-        <f>IF(D51&lt;200,"0-199",IF(D51&lt;300,"200-299",IF(D51&lt;400,"300-399",IF(D51&lt;500,"400-499",IF(D51&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="15">
@@ -8143,13 +7268,28 @@
       <c r="F51" s="15">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I51" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="23">
+        <v>6.3620689655172411</v>
+      </c>
+      <c r="K51" s="23">
+        <v>11.50103448275862</v>
+      </c>
+      <c r="L51" s="23">
+        <v>6.3620689655172411</v>
+      </c>
+      <c r="M51" s="23">
+        <v>11.50103448275862</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
-        <f>IF(D52&lt;200,"0-199",IF(D52&lt;300,"200-299",IF(D52&lt;400,"300-399",IF(D52&lt;500,"400-499",IF(D52&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="15">
@@ -8161,13 +7301,28 @@
       <c r="F52" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I52" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" s="23">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="K52" s="23">
+        <v>11.89</v>
+      </c>
+      <c r="L52" s="23">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="M52" s="23">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
-        <f>IF(D53&lt;200,"0-199",IF(D53&lt;300,"200-299",IF(D53&lt;400,"300-399",IF(D53&lt;500,"400-499",IF(D53&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="15">
@@ -8179,13 +7334,28 @@
       <c r="F53" s="15">
         <v>8.42</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I53" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="23">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="K53" s="23">
+        <v>9.792720000000001</v>
+      </c>
+      <c r="L53" s="23">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="M53" s="23">
+        <v>9.792720000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
-        <f>IF(D54&lt;200,"0-199",IF(D54&lt;300,"200-299",IF(D54&lt;400,"300-399",IF(D54&lt;500,"400-499",IF(D54&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="15">
@@ -8198,12 +7368,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
-        <f>IF(D55&lt;200,"0-199",IF(D55&lt;300,"200-299",IF(D55&lt;400,"300-399",IF(D55&lt;500,"400-499",IF(D55&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="15">
@@ -8216,12 +7386,12 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
-        <f>IF(D56&lt;200,"0-199",IF(D56&lt;300,"200-299",IF(D56&lt;400,"300-399",IF(D56&lt;500,"400-499",IF(D56&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="15">
@@ -8234,12 +7404,12 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
-        <f>IF(D57&lt;200,"0-199",IF(D57&lt;300,"200-299",IF(D57&lt;400,"300-399",IF(D57&lt;500,"400-499",IF(D57&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="15">
@@ -8252,12 +7422,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
-        <f>IF(D58&lt;200,"0-199",IF(D58&lt;300,"200-299",IF(D58&lt;400,"300-399",IF(D58&lt;500,"400-499",IF(D58&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="15">
@@ -8270,12 +7440,12 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
-        <f>IF(D59&lt;200,"0-199",IF(D59&lt;300,"200-299",IF(D59&lt;400,"300-399",IF(D59&lt;500,"400-499",IF(D59&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="15">
@@ -8288,12 +7458,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
-        <f>IF(D60&lt;200,"0-199",IF(D60&lt;300,"200-299",IF(D60&lt;400,"300-399",IF(D60&lt;500,"400-499",IF(D60&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D60" s="15">
@@ -8306,12 +7476,12 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
-        <f>IF(D61&lt;200,"0-199",IF(D61&lt;300,"200-299",IF(D61&lt;400,"300-399",IF(D61&lt;500,"400-499",IF(D61&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="15">
@@ -8324,12 +7494,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
-        <f>IF(D62&lt;200,"0-199",IF(D62&lt;300,"200-299",IF(D62&lt;400,"300-399",IF(D62&lt;500,"400-499",IF(D62&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D62" s="15">
@@ -8342,12 +7512,12 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
-        <f>IF(D63&lt;200,"0-199",IF(D63&lt;300,"200-299",IF(D63&lt;400,"300-399",IF(D63&lt;500,"400-499",IF(D63&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="15">
@@ -8359,13 +7529,25 @@
       <c r="F63" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O63" t="s">
+        <v>50</v>
+      </c>
+      <c r="P63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
-        <f>IF(D64&lt;200,"0-199",IF(D64&lt;300,"200-299",IF(D64&lt;400,"300-399",IF(D64&lt;500,"400-499",IF(D64&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="15">
@@ -8377,13 +7559,37 @@
       <c r="F64" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" t="s">
+        <v>43</v>
+      </c>
+      <c r="O64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P64" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>38</v>
+      </c>
+      <c r="R64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
-        <f>IF(D65&lt;200,"0-199",IF(D65&lt;300,"200-299",IF(D65&lt;400,"300-399",IF(D65&lt;500,"400-499",IF(D65&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="15">
@@ -8395,13 +7601,37 @@
       <c r="F65" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>44</v>
+      </c>
+      <c r="J65">
+        <v>4.708333333333333</v>
+      </c>
+      <c r="K65">
+        <v>6.1875</v>
+      </c>
+      <c r="L65">
+        <v>5.3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>44</v>
+      </c>
+      <c r="P65">
+        <v>8.4837499999999988</v>
+      </c>
+      <c r="Q65">
+        <v>8.0325000000000006</v>
+      </c>
+      <c r="R65">
+        <v>8.3032500000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
-        <f>IF(D66&lt;200,"0-199",IF(D66&lt;300,"200-299",IF(D66&lt;400,"300-399",IF(D66&lt;500,"400-499",IF(D66&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="15">
@@ -8413,13 +7643,37 @@
       <c r="F66" s="15">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66">
+        <v>5.0384615384615383</v>
+      </c>
+      <c r="K66">
+        <v>5.9047619047619051</v>
+      </c>
+      <c r="L66">
+        <v>5.4255319148936172</v>
+      </c>
+      <c r="O66" t="s">
+        <v>45</v>
+      </c>
+      <c r="P66">
+        <v>9.9703846153846154</v>
+      </c>
+      <c r="Q66">
+        <v>9.2900000000000009</v>
+      </c>
+      <c r="R66">
+        <v>9.666382978723405</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
-        <f>IF(D67&lt;200,"0-199",IF(D67&lt;300,"200-299",IF(D67&lt;400,"300-399",IF(D67&lt;500,"400-499",IF(D67&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D67" s="15">
@@ -8431,13 +7685,37 @@
       <c r="F67" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67">
+        <v>4.75</v>
+      </c>
+      <c r="K67">
+        <v>6.5862068965517242</v>
+      </c>
+      <c r="L67">
+        <v>6.1891891891891895</v>
+      </c>
+      <c r="O67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P67">
+        <v>11.25</v>
+      </c>
+      <c r="Q67">
+        <v>11.22448275862069</v>
+      </c>
+      <c r="R67">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
-        <f>IF(D68&lt;200,"0-199",IF(D68&lt;300,"200-299",IF(D68&lt;400,"300-399",IF(D68&lt;500,"400-499",IF(D68&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="15">
@@ -8449,13 +7727,37 @@
       <c r="F68" s="15">
         <v>10.33</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68">
+        <v>4.5</v>
+      </c>
+      <c r="K68">
+        <v>3.5</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>47</v>
+      </c>
+      <c r="P68">
+        <v>13.625</v>
+      </c>
+      <c r="Q68">
+        <v>11.625</v>
+      </c>
+      <c r="R68">
+        <v>12.625</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
-        <f>IF(D69&lt;200,"0-199",IF(D69&lt;300,"200-299",IF(D69&lt;400,"300-399",IF(D69&lt;500,"400-499",IF(D69&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D69" s="15">
@@ -8467,13 +7769,37 @@
       <c r="F69" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>9.5</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="O69" t="s">
+        <v>48</v>
+      </c>
+      <c r="P69">
+        <v>13.32</v>
+      </c>
+      <c r="Q69">
+        <v>15.875</v>
+      </c>
+      <c r="R69">
+        <v>15.023333333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
-        <f>IF(D70&lt;200,"0-199",IF(D70&lt;300,"200-299",IF(D70&lt;400,"300-399",IF(D70&lt;500,"400-499",IF(D70&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="15">
@@ -8485,13 +7811,37 @@
       <c r="F70" s="15">
         <v>8.67</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>43</v>
+      </c>
+      <c r="J70">
+        <v>4.8032786885245899</v>
+      </c>
+      <c r="K70">
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="L70">
+        <v>5.5954198473282446</v>
+      </c>
+      <c r="O70" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70">
+        <v>9.7280327868852474</v>
+      </c>
+      <c r="Q70">
+        <v>10.058857142857144</v>
+      </c>
+      <c r="R70">
+        <v>9.9048091603053425</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
-        <f>IF(D71&lt;200,"0-199",IF(D71&lt;300,"200-299",IF(D71&lt;400,"300-399",IF(D71&lt;500,"400-499",IF(D71&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="1"/>
         <v>200-299</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="15">
@@ -8504,12 +7854,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
-        <f>IF(D72&lt;200,"0-199",IF(D72&lt;300,"200-299",IF(D72&lt;400,"300-399",IF(D72&lt;500,"400-499",IF(D72&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" ref="B72:B103" si="2">IF(D72&lt;200,"0-199",IF(D72&lt;300,"200-299",IF(D72&lt;400,"300-399",IF(D72&lt;500,"400-499",IF(D72&lt;600,"500-599","n/a")))))</f>
         <v>200-299</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="15">
@@ -8522,12 +7872,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
-        <f>IF(D73&lt;200,"0-199",IF(D73&lt;300,"200-299",IF(D73&lt;400,"300-399",IF(D73&lt;500,"400-499",IF(D73&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="15">
@@ -8540,12 +7890,12 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
-        <f>IF(D74&lt;200,"0-199",IF(D74&lt;300,"200-299",IF(D74&lt;400,"300-399",IF(D74&lt;500,"400-499",IF(D74&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="15">
@@ -8557,13 +7907,16 @@
       <c r="F74" s="15">
         <v>10.67</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
-        <f>IF(D75&lt;200,"0-199",IF(D75&lt;300,"200-299",IF(D75&lt;400,"300-399",IF(D75&lt;500,"400-499",IF(D75&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D75" s="15">
@@ -8575,13 +7928,16 @@
       <c r="F75" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
-        <f>IF(D76&lt;200,"0-199",IF(D76&lt;300,"200-299",IF(D76&lt;400,"300-399",IF(D76&lt;500,"400-499",IF(D76&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="15">
@@ -8593,13 +7949,22 @@
       <c r="F76" s="15">
         <v>12.17</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
-        <f>IF(D77&lt;200,"0-199",IF(D77&lt;300,"200-299",IF(D77&lt;400,"300-399",IF(D77&lt;500,"400-499",IF(D77&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="15">
@@ -8611,13 +7976,22 @@
       <c r="F77" s="15">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77">
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="K77">
+        <v>7.6609523809523807</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
-        <f>IF(D78&lt;200,"0-199",IF(D78&lt;300,"200-299",IF(D78&lt;400,"300-399",IF(D78&lt;500,"400-499",IF(D78&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="15">
@@ -8629,13 +8003,22 @@
       <c r="F78" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78">
+        <v>4.2272727272727275</v>
+      </c>
+      <c r="K78">
+        <v>9.0727272727272723</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
-        <f>IF(D79&lt;200,"0-199",IF(D79&lt;300,"200-299",IF(D79&lt;400,"300-399",IF(D79&lt;500,"400-499",IF(D79&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D79" s="15">
@@ -8647,13 +8030,22 @@
       <c r="F79" s="15">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79">
+        <v>6.3620689655172411</v>
+      </c>
+      <c r="K79">
+        <v>11.50103448275862</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" t="str">
-        <f>IF(D80&lt;200,"0-199",IF(D80&lt;300,"200-299",IF(D80&lt;400,"300-399",IF(D80&lt;500,"400-499",IF(D80&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D80" s="15">
@@ -8665,13 +8057,22 @@
       <c r="F80" s="15">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="K80">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" t="str">
-        <f>IF(D81&lt;200,"0-199",IF(D81&lt;300,"200-299",IF(D81&lt;400,"300-399",IF(D81&lt;500,"400-499",IF(D81&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="15">
@@ -8683,13 +8084,22 @@
       <c r="F81" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="K81">
+        <v>9.792720000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B82" t="str">
-        <f>IF(D82&lt;200,"0-199",IF(D82&lt;300,"200-299",IF(D82&lt;400,"300-399",IF(D82&lt;500,"400-499",IF(D82&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D82" s="15">
@@ -8702,12 +8112,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" t="str">
-        <f>IF(D83&lt;200,"0-199",IF(D83&lt;300,"200-299",IF(D83&lt;400,"300-399",IF(D83&lt;500,"400-499",IF(D83&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="15">
@@ -8720,12 +8130,12 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" t="str">
-        <f>IF(D84&lt;200,"0-199",IF(D84&lt;300,"200-299",IF(D84&lt;400,"300-399",IF(D84&lt;500,"400-499",IF(D84&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D84" s="15">
@@ -8737,13 +8147,19 @@
       <c r="F84" s="15">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>51</v>
+      </c>
+      <c r="O84" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B85" t="str">
-        <f>IF(D85&lt;200,"0-199",IF(D85&lt;300,"200-299",IF(D85&lt;400,"300-399",IF(D85&lt;500,"400-499",IF(D85&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="15">
@@ -8756,12 +8172,12 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" t="str">
-        <f>IF(D86&lt;200,"0-199",IF(D86&lt;300,"200-299",IF(D86&lt;400,"300-399",IF(D86&lt;500,"400-499",IF(D86&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D86" s="15">
@@ -8773,13 +8189,31 @@
       <c r="F86" s="15">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J86" t="s">
+        <v>39</v>
+      </c>
+      <c r="K86" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>38</v>
+      </c>
+      <c r="R86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" t="str">
-        <f>IF(D87&lt;200,"0-199",IF(D87&lt;300,"200-299",IF(D87&lt;400,"300-399",IF(D87&lt;500,"400-499",IF(D87&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="15">
@@ -8791,13 +8225,43 @@
       <c r="F87" s="15">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I87" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J87">
+        <f>(J65-J77)^2/J77</f>
+        <v>1.7673131080389076E-2</v>
+      </c>
+      <c r="K87">
+        <f>(K65-J77)^2/J77</f>
+        <v>0.69860671082949288</v>
+      </c>
+      <c r="L87">
+        <f>SUM(J87:K87)</f>
+        <v>0.71627984190988192</v>
+      </c>
+      <c r="O87" t="s">
+        <v>44</v>
+      </c>
+      <c r="P87">
+        <f>(P65-K77)^2/K77</f>
+        <v>8.8369681502480202E-2</v>
+      </c>
+      <c r="Q87">
+        <f>(Q65-K77)^2/K77</f>
+        <v>1.8019643819114004E-2</v>
+      </c>
+      <c r="R87">
+        <f>SUM(P87:Q87)</f>
+        <v>0.1063893253215942</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" t="str">
-        <f>IF(D88&lt;200,"0-199",IF(D88&lt;300,"200-299",IF(D88&lt;400,"300-399",IF(D88&lt;500,"400-499",IF(D88&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D88" s="15">
@@ -8809,13 +8273,43 @@
       <c r="F88" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I88" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ref="J88:J90" si="3">(J66-J78)^2/J78</f>
+        <v>0.15566236906187264</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ref="K88:K90" si="4">(K66-J78)^2/J78</f>
+        <v>0.66567030852745146</v>
+      </c>
+      <c r="L88">
+        <f>SUM(J88:K88)</f>
+        <v>0.82133267758932416</v>
+      </c>
+      <c r="O88" t="s">
+        <v>45</v>
+      </c>
+      <c r="P88">
+        <f>(P66-K78)^2/K78</f>
+        <v>8.8814386303537773E-2</v>
+      </c>
+      <c r="Q88">
+        <f>(Q66-K78)^2/K78</f>
+        <v>5.2032246310804069E-3</v>
+      </c>
+      <c r="R88">
+        <f t="shared" ref="R88:R90" si="5">SUM(P88:Q88)</f>
+        <v>9.4017610934618176E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" t="str">
-        <f>IF(D89&lt;200,"0-199",IF(D89&lt;300,"200-299",IF(D89&lt;400,"300-399",IF(D89&lt;500,"400-499",IF(D89&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D89" s="15">
@@ -8827,13 +8321,43 @@
       <c r="F89" s="15">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I89" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="3"/>
+        <v>0.40847817960938221</v>
+      </c>
+      <c r="K89">
+        <f>(K67-J79)^2/J79</f>
+        <v>7.8964582749276001E-3</v>
+      </c>
+      <c r="L89">
+        <f>SUM(J89:K89)</f>
+        <v>0.41637463788430978</v>
+      </c>
+      <c r="O89" t="s">
+        <v>46</v>
+      </c>
+      <c r="P89">
+        <f>(P67-K79)^2/K79</f>
+        <v>5.4793602808825038E-3</v>
+      </c>
+      <c r="Q89">
+        <f>(Q67-K79)^2/K79</f>
+        <v>6.6499110352477575E-3</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="5"/>
+        <v>1.2129271316130261E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90" t="str">
-        <f>IF(D90&lt;200,"0-199",IF(D90&lt;300,"200-299",IF(D90&lt;400,"300-399",IF(D90&lt;500,"400-499",IF(D90&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D90" s="15">
@@ -8845,13 +8369,43 @@
       <c r="F90" s="15">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I90" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="3"/>
+        <v>6.4102564102564335E-3</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="4"/>
+        <v>0.16025641025641016</v>
+      </c>
+      <c r="L90">
+        <f>SUM(J90:K90)</f>
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="O90" t="s">
+        <v>47</v>
+      </c>
+      <c r="P90">
+        <f>(P68-K80)^2/K80</f>
+        <v>0.25317283431454984</v>
+      </c>
+      <c r="Q90">
+        <f>(Q68-K80)^2/K80</f>
+        <v>5.906223717409613E-3</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="5"/>
+        <v>0.25907905803195946</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" t="str">
-        <f>IF(D91&lt;200,"0-199",IF(D91&lt;300,"200-299",IF(D91&lt;400,"300-399",IF(D91&lt;500,"400-499",IF(D91&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C91" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="15">
@@ -8863,13 +8417,43 @@
       <c r="F91" s="15">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>60</v>
+      </c>
+      <c r="J91">
+        <f>SUM(J87:J89)</f>
+        <v>0.58181367975164389</v>
+      </c>
+      <c r="K91">
+        <f>SUM(K87:K89)</f>
+        <v>1.3721734776318721</v>
+      </c>
+      <c r="L91">
+        <f>SUM(L87:L89)</f>
+        <v>1.9539871573835159</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91">
+        <f>SUM(P87:P89)</f>
+        <v>0.18266342808690048</v>
+      </c>
+      <c r="Q91">
+        <f>SUM(Q87:Q89)</f>
+        <v>2.9872779485442168E-2</v>
+      </c>
+      <c r="R91">
+        <f>SUM(R87:R89)</f>
+        <v>0.21253620757234262</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92" t="str">
-        <f>IF(D92&lt;200,"0-199",IF(D92&lt;300,"200-299",IF(D92&lt;400,"300-399",IF(D92&lt;500,"400-499",IF(D92&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="15">
@@ -8882,12 +8466,12 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93" t="str">
-        <f>IF(D93&lt;200,"0-199",IF(D93&lt;300,"200-299",IF(D93&lt;400,"300-399",IF(D93&lt;500,"400-499",IF(D93&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="15">
@@ -8900,12 +8484,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B94" t="str">
-        <f>IF(D94&lt;200,"0-199",IF(D94&lt;300,"200-299",IF(D94&lt;400,"300-399",IF(D94&lt;500,"400-499",IF(D94&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>200-299</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D94" s="15">
@@ -8918,12 +8502,12 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B95" t="str">
-        <f>IF(D95&lt;200,"0-199",IF(D95&lt;300,"200-299",IF(D95&lt;400,"300-399",IF(D95&lt;500,"400-499",IF(D95&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>300-399</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D95" s="15">
@@ -8935,13 +8519,27 @@
       <c r="F95" s="15">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I95" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J95" s="29">
+        <f>SUM(J87:K90)</f>
+        <v>2.1206538240501827</v>
+      </c>
+      <c r="O95" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P95" s="29">
+        <f>SUM(P87:Q90)</f>
+        <v>0.47161526560430211</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B96" t="str">
-        <f>IF(D96&lt;200,"0-199",IF(D96&lt;300,"200-299",IF(D96&lt;400,"300-399",IF(D96&lt;500,"400-499",IF(D96&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>300-399</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D96" s="15">
@@ -8954,12 +8552,12 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97" t="str">
-        <f>IF(D97&lt;200,"0-199",IF(D97&lt;300,"200-299",IF(D97&lt;400,"300-399",IF(D97&lt;500,"400-499",IF(D97&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>300-399</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D97" s="15">
@@ -8971,13 +8569,21 @@
       <c r="F97" s="15">
         <v>13.25</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <f>_xlfn.CHISQ.DIST.RT(J95,3)</f>
+        <v>0.54774566827188509</v>
+      </c>
+      <c r="P97">
+        <f>_xlfn.CHISQ.DIST.RT(P95,3)</f>
+        <v>0.92508166568458572</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B98" t="str">
-        <f>IF(D98&lt;200,"0-199",IF(D98&lt;300,"200-299",IF(D98&lt;400,"300-399",IF(D98&lt;500,"400-499",IF(D98&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>300-399</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D98" s="15">
@@ -8990,12 +8596,12 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B99" t="str">
-        <f>IF(D99&lt;200,"0-199",IF(D99&lt;300,"200-299",IF(D99&lt;400,"300-399",IF(D99&lt;500,"400-499",IF(D99&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>300-399</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D99" s="15">
@@ -9008,12 +8614,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100" t="str">
-        <f>IF(D100&lt;200,"0-199",IF(D100&lt;300,"200-299",IF(D100&lt;400,"300-399",IF(D100&lt;500,"400-499",IF(D100&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>300-399</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C100" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D100" s="15">
@@ -9026,12 +8632,12 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101" t="str">
-        <f>IF(D101&lt;200,"0-199",IF(D101&lt;300,"200-299",IF(D101&lt;400,"300-399",IF(D101&lt;500,"400-499",IF(D101&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>300-399</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D101" s="15">
@@ -9044,12 +8650,12 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B102" t="str">
-        <f>IF(D102&lt;200,"0-199",IF(D102&lt;300,"200-299",IF(D102&lt;400,"300-399",IF(D102&lt;500,"400-499",IF(D102&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>300-399</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C102" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D102" s="15">
@@ -9062,12 +8668,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103" t="str">
-        <f>IF(D103&lt;200,"0-199",IF(D103&lt;300,"200-299",IF(D103&lt;400,"300-399",IF(D103&lt;500,"400-499",IF(D103&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="2"/>
         <v>300-399</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D103" s="15">
@@ -9080,12 +8686,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B104" t="str">
-        <f>IF(D104&lt;200,"0-199",IF(D104&lt;300,"200-299",IF(D104&lt;400,"300-399",IF(D104&lt;500,"400-499",IF(D104&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" ref="B104:B138" si="6">IF(D104&lt;200,"0-199",IF(D104&lt;300,"200-299",IF(D104&lt;400,"300-399",IF(D104&lt;500,"400-499",IF(D104&lt;600,"500-599","n/a")))))</f>
         <v>300-399</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D104" s="15">
@@ -9098,12 +8704,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B105" t="str">
-        <f>IF(D105&lt;200,"0-199",IF(D105&lt;300,"200-299",IF(D105&lt;400,"300-399",IF(D105&lt;500,"400-499",IF(D105&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C105" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D105" s="15">
@@ -9116,12 +8722,12 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B106" t="str">
-        <f>IF(D106&lt;200,"0-199",IF(D106&lt;300,"200-299",IF(D106&lt;400,"300-399",IF(D106&lt;500,"400-499",IF(D106&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="15">
@@ -9134,12 +8740,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107" t="str">
-        <f>IF(D107&lt;200,"0-199",IF(D107&lt;300,"200-299",IF(D107&lt;400,"300-399",IF(D107&lt;500,"400-499",IF(D107&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D107" s="15">
@@ -9152,12 +8758,12 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B108" t="str">
-        <f>IF(D108&lt;200,"0-199",IF(D108&lt;300,"200-299",IF(D108&lt;400,"300-399",IF(D108&lt;500,"400-499",IF(D108&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D108" s="15">
@@ -9170,12 +8776,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B109" t="str">
-        <f>IF(D109&lt;200,"0-199",IF(D109&lt;300,"200-299",IF(D109&lt;400,"300-399",IF(D109&lt;500,"400-499",IF(D109&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D109" s="15">
@@ -9188,12 +8794,12 @@
         <v>10.67</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B110" t="str">
-        <f>IF(D110&lt;200,"0-199",IF(D110&lt;300,"200-299",IF(D110&lt;400,"300-399",IF(D110&lt;500,"400-499",IF(D110&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D110" s="15">
@@ -9206,12 +8812,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B111" t="str">
-        <f>IF(D111&lt;200,"0-199",IF(D111&lt;300,"200-299",IF(D111&lt;400,"300-399",IF(D111&lt;500,"400-499",IF(D111&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D111" s="15">
@@ -9224,12 +8830,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B112" t="str">
-        <f>IF(D112&lt;200,"0-199",IF(D112&lt;300,"200-299",IF(D112&lt;400,"300-399",IF(D112&lt;500,"400-499",IF(D112&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C112" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D112" s="15">
@@ -9244,10 +8850,10 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" t="str">
-        <f>IF(D113&lt;200,"0-199",IF(D113&lt;300,"200-299",IF(D113&lt;400,"300-399",IF(D113&lt;500,"400-499",IF(D113&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D113" s="15">
@@ -9262,10 +8868,10 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" t="str">
-        <f>IF(D114&lt;200,"0-199",IF(D114&lt;300,"200-299",IF(D114&lt;400,"300-399",IF(D114&lt;500,"400-499",IF(D114&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D114" s="15">
@@ -9280,10 +8886,10 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" t="str">
-        <f>IF(D115&lt;200,"0-199",IF(D115&lt;300,"200-299",IF(D115&lt;400,"300-399",IF(D115&lt;500,"400-499",IF(D115&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="15">
@@ -9298,10 +8904,10 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" t="str">
-        <f>IF(D116&lt;200,"0-199",IF(D116&lt;300,"200-299",IF(D116&lt;400,"300-399",IF(D116&lt;500,"400-499",IF(D116&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D116" s="15">
@@ -9316,10 +8922,10 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" t="str">
-        <f>IF(D117&lt;200,"0-199",IF(D117&lt;300,"200-299",IF(D117&lt;400,"300-399",IF(D117&lt;500,"400-499",IF(D117&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D117" s="15">
@@ -9334,10 +8940,10 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" t="str">
-        <f>IF(D118&lt;200,"0-199",IF(D118&lt;300,"200-299",IF(D118&lt;400,"300-399",IF(D118&lt;500,"400-499",IF(D118&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D118" s="15">
@@ -9352,10 +8958,10 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" t="str">
-        <f>IF(D119&lt;200,"0-199",IF(D119&lt;300,"200-299",IF(D119&lt;400,"300-399",IF(D119&lt;500,"400-499",IF(D119&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D119" s="15">
@@ -9370,10 +8976,10 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" t="str">
-        <f>IF(D120&lt;200,"0-199",IF(D120&lt;300,"200-299",IF(D120&lt;400,"300-399",IF(D120&lt;500,"400-499",IF(D120&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D120" s="15">
@@ -9388,10 +8994,10 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" t="str">
-        <f>IF(D121&lt;200,"0-199",IF(D121&lt;300,"200-299",IF(D121&lt;400,"300-399",IF(D121&lt;500,"400-499",IF(D121&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D121" s="15">
@@ -9406,10 +9012,10 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" t="str">
-        <f>IF(D122&lt;200,"0-199",IF(D122&lt;300,"200-299",IF(D122&lt;400,"300-399",IF(D122&lt;500,"400-499",IF(D122&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D122" s="15">
@@ -9424,10 +9030,10 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" t="str">
-        <f>IF(D123&lt;200,"0-199",IF(D123&lt;300,"200-299",IF(D123&lt;400,"300-399",IF(D123&lt;500,"400-499",IF(D123&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D123" s="15">
@@ -9442,10 +9048,10 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" t="str">
-        <f>IF(D124&lt;200,"0-199",IF(D124&lt;300,"200-299",IF(D124&lt;400,"300-399",IF(D124&lt;500,"400-499",IF(D124&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C124" s="24" t="s">
+      <c r="C124" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D124" s="15">
@@ -9460,10 +9066,10 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" t="str">
-        <f>IF(D125&lt;200,"0-199",IF(D125&lt;300,"200-299",IF(D125&lt;400,"300-399",IF(D125&lt;500,"400-499",IF(D125&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="C125" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D125" s="15">
@@ -9478,10 +9084,10 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" t="str">
-        <f>IF(D126&lt;200,"0-199",IF(D126&lt;300,"200-299",IF(D126&lt;400,"300-399",IF(D126&lt;500,"400-499",IF(D126&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="C126" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D126" s="15">
@@ -9496,10 +9102,10 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" t="str">
-        <f>IF(D127&lt;200,"0-199",IF(D127&lt;300,"200-299",IF(D127&lt;400,"300-399",IF(D127&lt;500,"400-499",IF(D127&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D127" s="15">
@@ -9514,10 +9120,10 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" t="str">
-        <f>IF(D128&lt;200,"0-199",IF(D128&lt;300,"200-299",IF(D128&lt;400,"300-399",IF(D128&lt;500,"400-499",IF(D128&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C128" s="24" t="s">
+      <c r="C128" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D128" s="15">
@@ -9532,10 +9138,10 @@
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" t="str">
-        <f>IF(D129&lt;200,"0-199",IF(D129&lt;300,"200-299",IF(D129&lt;400,"300-399",IF(D129&lt;500,"400-499",IF(D129&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="C129" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D129" s="15">
@@ -9550,10 +9156,10 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" t="str">
-        <f>IF(D130&lt;200,"0-199",IF(D130&lt;300,"200-299",IF(D130&lt;400,"300-399",IF(D130&lt;500,"400-499",IF(D130&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D130" s="15">
@@ -9568,10 +9174,10 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" t="str">
-        <f>IF(D131&lt;200,"0-199",IF(D131&lt;300,"200-299",IF(D131&lt;400,"300-399",IF(D131&lt;500,"400-499",IF(D131&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>300-399</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D131" s="15">
@@ -9586,10 +9192,10 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" t="str">
-        <f>IF(D132&lt;200,"0-199",IF(D132&lt;300,"200-299",IF(D132&lt;400,"300-399",IF(D132&lt;500,"400-499",IF(D132&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>400-499</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="C132" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D132" s="15">
@@ -9604,10 +9210,10 @@
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" t="str">
-        <f>IF(D133&lt;200,"0-199",IF(D133&lt;300,"200-299",IF(D133&lt;400,"300-399",IF(D133&lt;500,"400-499",IF(D133&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>400-499</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C133" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D133" s="15">
@@ -9622,10 +9228,10 @@
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" t="str">
-        <f>IF(D134&lt;200,"0-199",IF(D134&lt;300,"200-299",IF(D134&lt;400,"300-399",IF(D134&lt;500,"400-499",IF(D134&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>400-499</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="C134" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D134" s="15">
@@ -9640,10 +9246,10 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" t="str">
-        <f>IF(D135&lt;200,"0-199",IF(D135&lt;300,"200-299",IF(D135&lt;400,"300-399",IF(D135&lt;500,"400-499",IF(D135&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>400-499</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D135" s="15">
@@ -9658,10 +9264,10 @@
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" t="str">
-        <f>IF(D136&lt;200,"0-199",IF(D136&lt;300,"200-299",IF(D136&lt;400,"300-399",IF(D136&lt;500,"400-499",IF(D136&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>500-599</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="C136" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D136" s="15">
@@ -9676,10 +9282,10 @@
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" t="str">
-        <f>IF(D137&lt;200,"0-199",IF(D137&lt;300,"200-299",IF(D137&lt;400,"300-399",IF(D137&lt;500,"400-499",IF(D137&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>500-599</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="C137" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D137" s="15">
@@ -9694,10 +9300,10 @@
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" t="str">
-        <f>IF(D138&lt;200,"0-199",IF(D138&lt;300,"200-299",IF(D138&lt;400,"300-399",IF(D138&lt;500,"400-499",IF(D138&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" si="6"/>
         <v>500-599</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D138" s="15">
@@ -9712,10 +9318,10 @@
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" t="str">
-        <f t="shared" ref="B139:B173" si="0">IF(D139&lt;200,"0-199",IF(D139&lt;300,"200-299",IF(D139&lt;400,"300-399",IF(D139&lt;500,"400-499",IF(D139&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" ref="B139:B173" si="7">IF(D139&lt;200,"0-199",IF(D139&lt;300,"200-299",IF(D139&lt;400,"300-399",IF(D139&lt;500,"400-499",IF(D139&lt;600,"500-599","n/a")))))</f>
         <v>300-399</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="C139" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D139" s="15">
@@ -9733,10 +9339,10 @@
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D140" s="15">
@@ -9754,10 +9360,10 @@
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C141" s="24" t="s">
+      <c r="C141" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="15">
@@ -9775,10 +9381,10 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>400-499</v>
       </c>
-      <c r="C142" s="24" t="s">
+      <c r="C142" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D142" s="15">
@@ -9796,10 +9402,10 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C143" s="24" t="s">
+      <c r="C143" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="15">
@@ -9817,10 +9423,10 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C144" s="24" t="s">
+      <c r="C144" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D144" s="15">
@@ -9838,10 +9444,10 @@
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C145" s="24" t="s">
+      <c r="C145" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D145" s="15">
@@ -9859,10 +9465,10 @@
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C146" s="24" t="s">
+      <c r="C146" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D146" s="15">
@@ -9880,10 +9486,10 @@
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D147" s="15">
@@ -9901,10 +9507,10 @@
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>200-299</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C148" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D148" s="15">
@@ -9922,10 +9528,10 @@
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C149" s="24" t="s">
+      <c r="C149" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D149" s="15">
@@ -9943,10 +9549,10 @@
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C150" s="24" t="s">
+      <c r="C150" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="15">
@@ -9964,10 +9570,10 @@
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>200-299</v>
       </c>
-      <c r="C151" s="24" t="s">
+      <c r="C151" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D151" s="15">
@@ -9985,10 +9591,10 @@
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D152" s="15">
@@ -10006,10 +9612,10 @@
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>400-499</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C153" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D153" s="15">
@@ -10027,10 +9633,10 @@
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C154" s="24" t="s">
+      <c r="C154" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D154" s="15">
@@ -10048,10 +9654,10 @@
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C155" s="24" t="s">
+      <c r="C155" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D155" s="15">
@@ -10069,10 +9675,10 @@
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>200-299</v>
       </c>
-      <c r="C156" s="24" t="s">
+      <c r="C156" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D156" s="15">
@@ -10090,10 +9696,10 @@
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C157" s="24" t="s">
+      <c r="C157" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D157" s="15">
@@ -10111,10 +9717,10 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C158" s="24" t="s">
+      <c r="C158" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D158" s="15">
@@ -10132,10 +9738,10 @@
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C159" s="24" t="s">
+      <c r="C159" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D159" s="15">
@@ -10153,10 +9759,10 @@
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C160" s="24" t="s">
+      <c r="C160" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D160" s="15">
@@ -10174,10 +9780,10 @@
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C161" s="24" t="s">
+      <c r="C161" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D161" s="15">
@@ -10195,10 +9801,10 @@
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C162" s="24" t="s">
+      <c r="C162" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D162" s="15">
@@ -10216,10 +9822,10 @@
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C163" s="24" t="s">
+      <c r="C163" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D163" s="15">
@@ -10237,10 +9843,10 @@
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C164" s="24" t="s">
+      <c r="C164" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D164" s="15">
@@ -10258,10 +9864,10 @@
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C165" s="24" t="s">
+      <c r="C165" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D165" s="15">
@@ -10279,10 +9885,10 @@
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C166" s="24" t="s">
+      <c r="C166" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D166" s="15">
@@ -10300,10 +9906,10 @@
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C167" s="24" t="s">
+      <c r="C167" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D167" s="15">
@@ -10321,10 +9927,10 @@
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="C168" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D168" s="15">
@@ -10342,10 +9948,10 @@
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="C169" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D169" s="15">
@@ -10363,10 +9969,10 @@
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C170" s="24" t="s">
+      <c r="C170" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D170" s="15">
@@ -10384,10 +9990,10 @@
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C171" s="24" t="s">
+      <c r="C171" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D171" s="15">
@@ -10405,10 +10011,10 @@
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>200-299</v>
       </c>
-      <c r="C172" s="24" t="s">
+      <c r="C172" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D172" s="15">
@@ -10426,10 +10032,10 @@
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>300-399</v>
       </c>
-      <c r="C173" s="24" t="s">
+      <c r="C173" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D173" s="15">
@@ -10447,10 +10053,10 @@
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" t="str">
-        <f t="shared" ref="B174:B208" si="1">IF(D174&lt;200,"0-199",IF(D174&lt;300,"200-299",IF(D174&lt;400,"300-399",IF(D174&lt;500,"400-499",IF(D174&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" ref="B174:B208" si="8">IF(D174&lt;200,"0-199",IF(D174&lt;300,"200-299",IF(D174&lt;400,"300-399",IF(D174&lt;500,"400-499",IF(D174&lt;600,"500-599","n/a")))))</f>
         <v>300-399</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D174" s="15">
@@ -10468,10 +10074,10 @@
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C175" s="24" t="s">
+      <c r="C175" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D175" s="15">
@@ -10489,10 +10095,10 @@
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C176" s="24" t="s">
+      <c r="C176" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D176" s="15">
@@ -10510,10 +10116,10 @@
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C177" s="24" t="s">
+      <c r="C177" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D177" s="15">
@@ -10531,10 +10137,10 @@
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="C178" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D178" s="15">
@@ -10552,10 +10158,10 @@
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C179" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D179" s="15">
@@ -10573,10 +10179,10 @@
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>400-499</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D180" s="15">
@@ -10594,10 +10200,10 @@
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C181" s="24" t="s">
+      <c r="C181" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D181" s="15">
@@ -10615,10 +10221,10 @@
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D182" s="15">
@@ -10636,10 +10242,10 @@
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C183" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D183" s="15">
@@ -10657,10 +10263,10 @@
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C184" s="24" t="s">
+      <c r="C184" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D184" s="15">
@@ -10678,10 +10284,10 @@
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C185" s="24" t="s">
+      <c r="C185" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D185" s="15">
@@ -10699,10 +10305,10 @@
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C186" s="24" t="s">
+      <c r="C186" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D186" s="15">
@@ -10720,10 +10326,10 @@
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C187" s="24" t="s">
+      <c r="C187" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D187" s="15">
@@ -10741,10 +10347,10 @@
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B188" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C188" s="24" t="s">
+      <c r="C188" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D188" s="15">
@@ -10762,10 +10368,10 @@
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>200-299</v>
       </c>
-      <c r="C189" s="24" t="s">
+      <c r="C189" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D189" s="15">
@@ -10783,10 +10389,10 @@
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C190" s="24" t="s">
+      <c r="C190" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D190" s="15">
@@ -10804,10 +10410,10 @@
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C191" s="24" t="s">
+      <c r="C191" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D191" s="15">
@@ -10825,10 +10431,10 @@
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C192" s="24" t="s">
+      <c r="C192" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D192" s="15">
@@ -10846,10 +10452,10 @@
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>200-299</v>
       </c>
-      <c r="C193" s="24" t="s">
+      <c r="C193" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D193" s="15">
@@ -10867,10 +10473,10 @@
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C194" s="24" t="s">
+      <c r="C194" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D194" s="15">
@@ -10888,10 +10494,10 @@
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C195" s="24" t="s">
+      <c r="C195" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D195" s="15">
@@ -10909,10 +10515,10 @@
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C196" s="24" t="s">
+      <c r="C196" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D196" s="15">
@@ -10930,10 +10536,10 @@
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C197" s="24" t="s">
+      <c r="C197" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D197" s="15">
@@ -10951,10 +10557,10 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C198" s="24" t="s">
+      <c r="C198" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D198" s="15">
@@ -10972,10 +10578,10 @@
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>200-299</v>
       </c>
-      <c r="C199" s="24" t="s">
+      <c r="C199" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D199" s="15">
@@ -10993,10 +10599,10 @@
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C200" s="24" t="s">
+      <c r="C200" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D200" s="15">
@@ -11014,10 +10620,10 @@
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>200-299</v>
       </c>
-      <c r="C201" s="24" t="s">
+      <c r="C201" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D201" s="15">
@@ -11035,10 +10641,10 @@
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C202" s="24" t="s">
+      <c r="C202" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D202" s="15">
@@ -11056,10 +10662,10 @@
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C203" s="24" t="s">
+      <c r="C203" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D203" s="15">
@@ -11077,10 +10683,10 @@
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>200-299</v>
       </c>
-      <c r="C204" s="24" t="s">
+      <c r="C204" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D204" s="15">
@@ -11098,10 +10704,10 @@
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C205" s="24" t="s">
+      <c r="C205" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D205" s="15">
@@ -11119,10 +10725,10 @@
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C206" s="24" t="s">
+      <c r="C206" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D206" s="15">
@@ -11140,10 +10746,10 @@
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C207" s="24" t="s">
+      <c r="C207" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D207" s="15">
@@ -11161,10 +10767,10 @@
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>300-399</v>
       </c>
-      <c r="C208" s="24" t="s">
+      <c r="C208" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D208" s="15">
@@ -11182,10 +10788,10 @@
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B209" t="str">
-        <f t="shared" ref="B209:B263" si="2">IF(D209&lt;200,"0-199",IF(D209&lt;300,"200-299",IF(D209&lt;400,"300-399",IF(D209&lt;500,"400-499",IF(D209&lt;600,"500-599","n/a")))))</f>
+        <f t="shared" ref="B209:B263" si="9">IF(D209&lt;200,"0-199",IF(D209&lt;300,"200-299",IF(D209&lt;400,"300-399",IF(D209&lt;500,"400-499",IF(D209&lt;600,"500-599","n/a")))))</f>
         <v>0-199</v>
       </c>
-      <c r="C209" s="24" t="s">
+      <c r="C209" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D209" s="15">
@@ -11203,10 +10809,10 @@
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C210" s="24" t="s">
+      <c r="C210" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D210" s="15">
@@ -11224,10 +10830,10 @@
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C211" s="24" t="s">
+      <c r="C211" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D211" s="15">
@@ -11245,10 +10851,10 @@
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C212" s="24" t="s">
+      <c r="C212" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D212" s="15">
@@ -11266,10 +10872,10 @@
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C213" s="24" t="s">
+      <c r="C213" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D213" s="15">
@@ -11287,10 +10893,10 @@
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C214" s="24" t="s">
+      <c r="C214" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D214" s="15">
@@ -11308,10 +10914,10 @@
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C215" s="24" t="s">
+      <c r="C215" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D215" s="15">
@@ -11329,10 +10935,10 @@
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C216" s="24" t="s">
+      <c r="C216" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D216" s="15">
@@ -11350,10 +10956,10 @@
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C217" s="24" t="s">
+      <c r="C217" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D217" s="15">
@@ -11371,10 +10977,10 @@
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C218" s="24" t="s">
+      <c r="C218" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D218" s="15">
@@ -11392,10 +10998,10 @@
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C219" s="24" t="s">
+      <c r="C219" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D219" s="15">
@@ -11413,10 +11019,10 @@
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C220" s="24" t="s">
+      <c r="C220" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D220" s="15">
@@ -11434,10 +11040,10 @@
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C221" s="24" t="s">
+      <c r="C221" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D221" s="15">
@@ -11455,10 +11061,10 @@
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C222" s="24" t="s">
+      <c r="C222" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D222" s="15">
@@ -11476,10 +11082,10 @@
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C223" s="24" t="s">
+      <c r="C223" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D223" s="15">
@@ -11497,10 +11103,10 @@
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C224" s="24" t="s">
+      <c r="C224" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D224" s="15">
@@ -11518,10 +11124,10 @@
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C225" s="24" t="s">
+      <c r="C225" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D225" s="15">
@@ -11539,10 +11145,10 @@
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C226" s="24" t="s">
+      <c r="C226" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D226" s="15">
@@ -11560,10 +11166,10 @@
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C227" s="24" t="s">
+      <c r="C227" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D227" s="15">
@@ -11581,10 +11187,10 @@
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C228" s="24" t="s">
+      <c r="C228" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D228" s="15">
@@ -11602,10 +11208,10 @@
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C229" s="24" t="s">
+      <c r="C229" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D229" s="15">
@@ -11623,10 +11229,10 @@
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C230" s="24" t="s">
+      <c r="C230" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D230" s="15">
@@ -11644,10 +11250,10 @@
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C231" s="24" t="s">
+      <c r="C231" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D231" s="15">
@@ -11665,10 +11271,10 @@
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C232" s="24" t="s">
+      <c r="C232" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D232" s="15">
@@ -11686,10 +11292,10 @@
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C233" s="24" t="s">
+      <c r="C233" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D233" s="15">
@@ -11707,10 +11313,10 @@
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C234" s="24" t="s">
+      <c r="C234" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D234" s="15">
@@ -11728,10 +11334,10 @@
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C235" s="24" t="s">
+      <c r="C235" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D235" s="15">
@@ -11749,10 +11355,10 @@
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C236" s="24" t="s">
+      <c r="C236" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D236" s="15">
@@ -11770,10 +11376,10 @@
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C237" s="24" t="s">
+      <c r="C237" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D237" s="15">
@@ -11791,10 +11397,10 @@
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C238" s="24" t="s">
+      <c r="C238" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D238" s="15">
@@ -11812,10 +11418,10 @@
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C239" s="24" t="s">
+      <c r="C239" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D239" s="15">
@@ -11833,10 +11439,10 @@
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C240" s="24" t="s">
+      <c r="C240" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D240" s="15">
@@ -11854,10 +11460,10 @@
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C241" s="24" t="s">
+      <c r="C241" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D241" s="15">
@@ -11875,10 +11481,10 @@
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C242" s="24" t="s">
+      <c r="C242" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D242" s="15">
@@ -11896,10 +11502,10 @@
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C243" s="24" t="s">
+      <c r="C243" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D243" s="15">
@@ -11917,10 +11523,10 @@
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C244" s="24" t="s">
+      <c r="C244" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D244" s="15">
@@ -11938,10 +11544,10 @@
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C245" s="24" t="s">
+      <c r="C245" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D245" s="15">
@@ -11959,10 +11565,10 @@
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C246" s="24" t="s">
+      <c r="C246" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D246" s="15">
@@ -11980,10 +11586,10 @@
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B247" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C247" s="24" t="s">
+      <c r="C247" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D247" s="15">
@@ -12001,10 +11607,10 @@
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C248" s="24" t="s">
+      <c r="C248" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D248" s="15">
@@ -12022,10 +11628,10 @@
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B249" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C249" s="24" t="s">
+      <c r="C249" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D249" s="15">
@@ -12043,10 +11649,10 @@
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C250" s="24" t="s">
+      <c r="C250" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D250" s="15">
@@ -12064,10 +11670,10 @@
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C251" s="24" t="s">
+      <c r="C251" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D251" s="15">
@@ -12085,10 +11691,10 @@
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C252" s="24" t="s">
+      <c r="C252" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D252" s="15">
@@ -12106,10 +11712,10 @@
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C253" s="24" t="s">
+      <c r="C253" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D253" s="15">
@@ -12127,10 +11733,10 @@
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C254" s="24" t="s">
+      <c r="C254" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D254" s="15">
@@ -12148,10 +11754,10 @@
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C255" s="24" t="s">
+      <c r="C255" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D255" s="15">
@@ -12169,10 +11775,10 @@
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C256" s="24" t="s">
+      <c r="C256" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D256" s="15">
@@ -12190,10 +11796,10 @@
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C257" s="24" t="s">
+      <c r="C257" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D257" s="15">
@@ -12211,10 +11817,10 @@
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B258" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C258" s="24" t="s">
+      <c r="C258" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D258" s="15">
@@ -12232,10 +11838,10 @@
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B259" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C259" s="24" t="s">
+      <c r="C259" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D259" s="15">
@@ -12253,10 +11859,10 @@
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B260" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200-299</v>
       </c>
-      <c r="C260" s="24" t="s">
+      <c r="C260" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D260" s="15">
@@ -12274,10 +11880,10 @@
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C261" s="24" t="s">
+      <c r="C261" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D261" s="15">
@@ -12295,10 +11901,10 @@
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B262" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C262" s="24" t="s">
+      <c r="C262" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D262" s="15">
@@ -12316,10 +11922,10 @@
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0-199</v>
       </c>
-      <c r="C263" s="24" t="s">
+      <c r="C263" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D263" s="15">
@@ -12336,7 +11942,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B7:F138" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <autoFilter ref="B7:F263" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:F138">
       <sortCondition ref="D7:D138"/>
     </sortState>
@@ -12350,7 +11956,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -12358,45 +11964,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:L124"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="C55" sqref="C55:E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -14047,49 +13653,49 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -14954,37 +14560,37 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -15688,65 +15294,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Dashboard_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <Url>http://cm3.darden.virginia.edu/CMO/WorkflowDashboard.aspx?wf=2852</Url>
-      <Description>Workflow Dashboard</Description>
-    </Dashboard_x002a_>
-    <Document_x0020_Type xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Supplemental File</Document_x0020_Type>
-    <Metadata_x0020_Form_x0020_URL_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <Url>http://cm3.darden.virginia.edu/CMO/Gold Metadata/DispFormMeta.aspx?ID=35145</Url>
-      <Description>View Document Metadata</Description>
-    </Metadata_x0020_Form_x0020_URL_x002a_>
-    <Faculty_x0020_Sponsor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <UserInfo>
-        <DisplayName>DARDEN\pfeiferp</DisplayName>
-        <AccountId>89</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Faculty_x0020_Sponsor_x002a_>
-    <DBP_x0020_Editor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <UserInfo>
-        <DisplayName>DARDEN\mullinl</DisplayName>
-        <AccountId>438</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </DBP_x0020_Editor_x002a_>
-    <Subject_x0020_Area xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Operations Management</Subject_x0020_Area>
-    <Metadata_x0020_Link_x0020_ID xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">{E0EA0DEF-0790-4532-9A28-A7BD9C4F09B0}</Metadata_x0020_Link_x0020_ID>
-    <Approver_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
-      <UserInfo>
-        <DisplayName>DARDEN\pfeiferp</DisplayName>
-        <AccountId>89</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Approver_x002a_>
-    <CheckinCommentLine xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <ApprovalState xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <DatePending xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <VersionModifierName xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <DateInEditing xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <DateOfApproval xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <RejectionText xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <MetadataLibraryDisplayFormLink xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <MetadataLibrary xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <MetadataID xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-    <PrimaryAuthor xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC88B602DD77EF48A07DCBF2B238F6DA" ma:contentTypeVersion="77" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f65bd87b856f4c89742648cd51b8c59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="82207545-987c-4df2-827d-742bde27eac5" xmlns:ns3="ec868678-deb6-48cf-896b-119bf5e2249b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a65ed7353f1cdfe266144dd599d14120" ns2:_="" ns3:_="">
     <xsd:import namespace="82207545-987c-4df2-827d-742bde27eac5"/>
@@ -16011,31 +15558,66 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07B8708-7F4A-48A7-ADCE-9F3BC3C42D78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Dashboard_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <Url>http://cm3.darden.virginia.edu/CMO/WorkflowDashboard.aspx?wf=2852</Url>
+      <Description>Workflow Dashboard</Description>
+    </Dashboard_x002a_>
+    <Document_x0020_Type xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Supplemental File</Document_x0020_Type>
+    <Metadata_x0020_Form_x0020_URL_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <Url>http://cm3.darden.virginia.edu/CMO/Gold Metadata/DispFormMeta.aspx?ID=35145</Url>
+      <Description>View Document Metadata</Description>
+    </Metadata_x0020_Form_x0020_URL_x002a_>
+    <Faculty_x0020_Sponsor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <UserInfo>
+        <DisplayName>DARDEN\pfeiferp</DisplayName>
+        <AccountId>89</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Faculty_x0020_Sponsor_x002a_>
+    <DBP_x0020_Editor_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <UserInfo>
+        <DisplayName>DARDEN\mullinl</DisplayName>
+        <AccountId>438</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </DBP_x0020_Editor_x002a_>
+    <Subject_x0020_Area xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">Operations Management</Subject_x0020_Area>
+    <Metadata_x0020_Link_x0020_ID xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">{E0EA0DEF-0790-4532-9A28-A7BD9C4F09B0}</Metadata_x0020_Link_x0020_ID>
+    <Approver_x002a_ xmlns="ec868678-deb6-48cf-896b-119bf5e2249b">
+      <UserInfo>
+        <DisplayName>DARDEN\pfeiferp</DisplayName>
+        <AccountId>89</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Approver_x002a_>
+    <CheckinCommentLine xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <ApprovalState xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <DatePending xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <VersionModifierName xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <DateInEditing xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <DateOfApproval xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <RejectionText xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <MetadataLibraryDisplayFormLink xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <MetadataLibrary xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <MetadataID xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+    <PrimaryAuthor xmlns="82207545-987c-4df2-827d-742bde27eac5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3508745D-EF7F-4FD7-B81C-557DAA4D27CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ec868678-deb6-48cf-896b-119bf5e2249b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="82207545-987c-4df2-827d-742bde27eac5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB460D2-73C8-49B3-A974-D9C1261CD56A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16051,4 +15633,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3508745D-EF7F-4FD7-B81C-557DAA4D27CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="82207545-987c-4df2-827d-742bde27eac5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ec868678-deb6-48cf-896b-119bf5e2249b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07B8708-7F4A-48A7-ADCE-9F3BC3C42D78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>